--- a/inst/extdata/add_factors.xlsx
+++ b/inst/extdata/add_factors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/Projects/fim/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3606B988-B7D8-A44E-8B2F-90D3894EDAFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1B1035-D519-B240-961F-BB8F809FB30B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8700" yWindow="500" windowWidth="33600" windowHeight="19500" activeTab="3" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19500" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -327,7 +327,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A35" authorId="0" shapeId="0" xr:uid="{C5874266-DAEE-4D89-A899-CF29CEDEE179}">
+    <comment ref="A36" authorId="0" shapeId="0" xr:uid="{C5874266-DAEE-4D89-A899-CF29CEDEE179}">
       <text>
         <r>
           <rPr>
@@ -361,7 +361,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O35" authorId="1" shapeId="0" xr:uid="{D4AA3B3B-1162-4A8A-A155-4B50A107D1DD}">
+    <comment ref="O36" authorId="1" shapeId="0" xr:uid="{D4AA3B3B-1162-4A8A-A155-4B50A107D1DD}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -731,7 +731,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="385">
   <si>
     <t>Corporate Taxes</t>
   </si>
@@ -1451,6 +1451,9 @@
     <t>FY 2020</t>
   </si>
   <si>
+    <t>FIM Fed Social Benefits</t>
+  </si>
+  <si>
     <t>Trump UI</t>
   </si>
   <si>
@@ -2119,35 +2122,32 @@
     <t>federal nom purchases override growth rate</t>
   </si>
   <si>
+    <t>consumption_grants_override</t>
+  </si>
+  <si>
+    <t>federal_ui_override</t>
+  </si>
+  <si>
+    <t>state_ui_override</t>
+  </si>
+  <si>
     <t>ui_override</t>
   </si>
   <si>
-    <t>federal_ui_override</t>
-  </si>
-  <si>
-    <t>state_ui_override</t>
-  </si>
-  <si>
-    <t>consumption_grants_override</t>
+    <t>add_state_non_corporate_taxes</t>
   </si>
   <si>
     <t>add_consumption_grants</t>
   </si>
   <si>
-    <t>FIM Fed Social Benefits minus rebate minus ui</t>
-  </si>
-  <si>
-    <t>Social Benefits Add on</t>
-  </si>
-  <si>
-    <t>cbo growth rate for federal social benefits</t>
+    <t>Fed Social Benefits Minus Medicare</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="11">
+  <numFmts count="10">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="dd\-mmm\-yy"/>
@@ -2158,7 +2158,6 @@
     <numFmt numFmtId="170" formatCode="0.0"/>
     <numFmt numFmtId="171" formatCode="0.000%"/>
     <numFmt numFmtId="172" formatCode="0.0000"/>
-    <numFmt numFmtId="174" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="34" x14ac:knownFonts="1">
     <font>
@@ -2940,7 +2939,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="372">
+  <cellXfs count="369">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3590,6 +3589,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3611,36 +3625,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1"/>
-    <xf numFmtId="174" fontId="27" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4043,7 +4039,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="O35" dT="2020-12-22T23:07:42.60" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{D4AA3B3B-1162-4A8A-A155-4B50A107D1DD}">
+  <threadedComment ref="O36" dT="2020-12-22T23:07:42.60" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{D4AA3B3B-1162-4A8A-A155-4B50A107D1DD}">
     <text>adding $12B for the medicare sequester (12B over 4 quarters and then annuzlied)</text>
   </threadedComment>
   <threadedComment ref="O38" dT="2020-12-21T20:20:09.37" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{6CD6C4CA-E498-4D54-9079-67C6684A7737}">
@@ -4151,11 +4147,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412AAB1A-8B83-4A8D-A21D-8EE870D0279B}">
   <dimension ref="A1:AQ121"/>
   <sheetViews>
-    <sheetView zoomScale="134" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="R40" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="J32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="U57" sqref="U57"/>
+      <selection pane="bottomRight" activeCell="O94" sqref="O94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4179,34 +4175,34 @@
   <sheetData>
     <row r="1" spans="1:43" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="328" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B1" s="328"/>
       <c r="C1" s="268"/>
       <c r="D1" s="268"/>
       <c r="E1" s="35"/>
       <c r="N1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AC1" s="334" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AD1" s="334"/>
       <c r="AE1" s="332" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF1" s="333"/>
       <c r="AG1" t="s">
         <v>28</v>
       </c>
       <c r="AI1" s="330" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AJ1" s="330"/>
       <c r="AK1" s="330"/>
       <c r="AL1" s="330"/>
       <c r="AM1" s="329" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN1" s="329"/>
       <c r="AO1" s="329"/>
@@ -4238,7 +4234,7 @@
       <c r="T2" s="327"/>
       <c r="U2" s="327"/>
       <c r="V2" s="327" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="W2" s="327"/>
       <c r="X2" s="327"/>
@@ -4336,7 +4332,7 @@
         <v>11</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AH3" s="2" t="s">
         <v>159</v>
@@ -4351,7 +4347,7 @@
         <v>11</v>
       </c>
       <c r="AL3" s="97" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AN3" s="97" t="s">
         <v>12</v>
@@ -4360,12 +4356,12 @@
         <v>11</v>
       </c>
       <c r="AP3" s="97" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:43" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="326" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B4" s="326"/>
       <c r="C4" s="268"/>
@@ -4392,13 +4388,13 @@
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F5" s="198">
         <v>20909.900000000001</v>
@@ -4489,7 +4485,7 @@
     </row>
     <row r="6" spans="1:43" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A6" s="169" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C6" s="269"/>
       <c r="D6" s="269"/>
@@ -4576,13 +4572,13 @@
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F7" s="198">
         <v>18813.900000000001</v>
@@ -4673,7 +4669,7 @@
     </row>
     <row r="8" spans="1:43" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A8" s="169" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C8" s="269"/>
       <c r="D8" s="269"/>
@@ -4799,7 +4795,7 @@
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A11" s="176" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F11" s="198">
         <f>F12+F15+F18</f>
@@ -4879,10 +4875,10 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C12" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D12"/>
       <c r="F12" s="198">
@@ -4990,7 +4986,7 @@
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A13" s="212" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -5053,7 +5049,7 @@
     </row>
     <row r="14" spans="1:43" s="170" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="212" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C14" s="269"/>
       <c r="D14" s="269"/>
@@ -5112,10 +5108,10 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C15" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D15"/>
       <c r="F15" s="198">
@@ -5219,7 +5215,7 @@
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A16" s="212" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
@@ -5287,7 +5283,7 @@
     </row>
     <row r="17" spans="1:39" s="170" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="212" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C17" s="269"/>
       <c r="D17" s="269"/>
@@ -5346,10 +5342,10 @@
         <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C18" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D18"/>
       <c r="F18" s="198">
@@ -5457,7 +5453,7 @@
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A19" s="212" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
@@ -5520,7 +5516,7 @@
     </row>
     <row r="20" spans="1:39" s="170" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="212" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C20" s="269"/>
       <c r="D20" s="269"/>
@@ -5579,10 +5575,10 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C21" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D21"/>
       <c r="F21" s="198">
@@ -5689,7 +5685,7 @@
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A22" s="177" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
@@ -5751,7 +5747,7 @@
     </row>
     <row r="23" spans="1:39" s="170" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="177" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C23" s="269"/>
       <c r="D23" s="269"/>
@@ -5847,7 +5843,7 @@
     </row>
     <row r="25" spans="1:39" s="170" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C25" s="269"/>
       <c r="D25" s="269"/>
@@ -5887,7 +5883,7 @@
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A26" s="176" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F26" s="203">
         <f>SUM(F27:F29)</f>
@@ -5962,7 +5958,7 @@
         <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D27"/>
       <c r="F27" s="197">
@@ -6031,7 +6027,7 @@
         <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D28"/>
       <c r="F28" s="197">
@@ -6100,7 +6096,7 @@
         <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D29"/>
       <c r="F29" s="197">
@@ -6169,7 +6165,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D30"/>
       <c r="F30" s="197">
@@ -6235,7 +6231,7 @@
     </row>
     <row r="31" spans="1:39" s="185" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A31" s="177" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F31" s="209">
         <f t="shared" ref="F31:L31" si="27">F30/F21</f>
@@ -6357,10 +6353,10 @@
         <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C34" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D34"/>
       <c r="F34" s="202">
@@ -6392,32 +6388,32 @@
         <v>2925056</v>
       </c>
       <c r="O34" s="133">
-        <f t="shared" ref="O34:U34" si="29">O35+O41+O51</f>
-        <v>3270456.7169724014</v>
+        <f t="shared" ref="O34:U34" si="29">O36+O41+O51</f>
+        <v>3319653.9494724013</v>
       </c>
       <c r="P34" s="133">
         <f t="shared" si="29"/>
-        <v>2708796.7165770018</v>
+        <v>2757624.969833252</v>
       </c>
       <c r="Q34" s="133">
         <f t="shared" si="29"/>
-        <v>2611509.6718853824</v>
+        <v>2659971.7132422109</v>
       </c>
       <c r="R34" s="133">
         <f t="shared" si="29"/>
-        <v>2678465.9441347551</v>
+        <v>2727654.9161119359</v>
       </c>
       <c r="S34" s="133">
         <f t="shared" si="29"/>
-        <v>2735176.6542439447</v>
+        <v>2785103.4608007832</v>
       </c>
       <c r="T34" s="133">
         <f t="shared" si="29"/>
-        <v>2793300.2519227522</v>
+        <v>2843975.9605779434</v>
       </c>
       <c r="U34" s="133">
         <f t="shared" si="29"/>
-        <v>2852876.3150512893</v>
+        <v>2904312.1593363085</v>
       </c>
       <c r="V34" s="87"/>
       <c r="W34" s="44"/>
@@ -6455,194 +6451,224 @@
     </row>
     <row r="35" spans="1:39" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35" t="s">
-        <v>279</v>
-      </c>
-      <c r="C35" t="s">
-        <v>298</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="C35"/>
       <c r="D35"/>
       <c r="F35" s="202">
-        <v>753311</v>
+        <f>F34-F36</f>
+        <v>1467212</v>
       </c>
       <c r="G35" s="202">
-        <v>767353</v>
+        <f t="shared" ref="G35:U35" si="30">G34-G36</f>
+        <v>1531439</v>
       </c>
       <c r="H35" s="202">
-        <v>779707</v>
+        <f t="shared" si="30"/>
+        <v>1536135</v>
       </c>
       <c r="I35" s="202">
-        <v>789893</v>
+        <f t="shared" si="30"/>
+        <v>1541535</v>
       </c>
       <c r="J35" s="202">
-        <v>797912</v>
+        <f t="shared" si="30"/>
+        <v>1549825</v>
       </c>
       <c r="K35" s="202">
-        <v>804655</v>
+        <f t="shared" si="30"/>
+        <v>1617891</v>
       </c>
       <c r="L35" s="202">
-        <v>824058</v>
-      </c>
-      <c r="M35" s="301">
-        <v>842733</v>
-      </c>
-      <c r="N35" s="303">
-        <f>VLOOKUP($C$35,'Haver NA'!$A$1:$J$34,10,0)</f>
-        <v>860594</v>
-      </c>
-      <c r="O35" s="87">
-        <f>N35*((($AJ$35/$AI$35)^0.25))+12000</f>
-        <v>883132.91447240114</v>
-      </c>
-      <c r="P35" s="87">
-        <f>O35*((($AJ$35/$AI$35)^0.25))+12000</f>
-        <v>905947.84259575198</v>
-      </c>
-      <c r="Q35" s="87">
-        <f>P35*((($AJ$35/$AI$35)^0.25))+12000</f>
-        <v>929042.16445899184</v>
-      </c>
-      <c r="R35" s="87">
-        <f>Q35*((($AK$35/$AJ$35)^0.25))+12000</f>
-        <v>971421.42409696849</v>
-      </c>
-      <c r="S35" s="87">
-        <f>R35*((($AK$35/$AJ$35)^0.25))</f>
-        <v>1003186.4664055918</v>
-      </c>
-      <c r="T35" s="87">
-        <f>S35*((($AK$35/$AJ$35)^0.25))</f>
-        <v>1035990.2112668242</v>
-      </c>
-      <c r="U35" s="87">
-        <f>T35*((($AK$35/$AJ$35)^0.25))</f>
-        <v>1069866.6237855225</v>
-      </c>
-      <c r="V35" s="87">
-        <f>U35*((($AL$35/$AK$35)^0.25))</f>
-        <v>1080647.7677858607</v>
-      </c>
-      <c r="W35" s="87">
-        <f>V35*((($AL$35/$AK$35)^0.25))</f>
-        <v>1091537.5543621723</v>
-      </c>
-      <c r="X35" s="87">
-        <f>W35*((($AL$35/$AK$35)^0.25))</f>
-        <v>1102537.0783156503</v>
-      </c>
-      <c r="Y35" s="87">
-        <f>X35*((($AL$35/$AK$35)^0.25))</f>
-        <v>1113647.4454798999</v>
-      </c>
+        <f t="shared" si="30"/>
+        <v>3991196</v>
+      </c>
+      <c r="M35" s="202">
+        <f t="shared" si="30"/>
+        <v>2652155</v>
+      </c>
+      <c r="N35" s="202">
+        <f t="shared" si="30"/>
+        <v>2064462</v>
+      </c>
+      <c r="O35" s="202">
+        <f t="shared" si="30"/>
+        <v>2436521.0350000001</v>
+      </c>
+      <c r="P35" s="202">
+        <f t="shared" si="30"/>
+        <v>1851677.1272375002</v>
+      </c>
+      <c r="Q35" s="202">
+        <f t="shared" si="30"/>
+        <v>1730929.548783219</v>
+      </c>
+      <c r="R35" s="202">
+        <f t="shared" si="30"/>
+        <v>1756233.4920149674</v>
+      </c>
+      <c r="S35" s="202">
+        <f t="shared" si="30"/>
+        <v>1781916.9943951913</v>
+      </c>
+      <c r="T35" s="202">
+        <f t="shared" si="30"/>
+        <v>1807985.7493111193</v>
+      </c>
+      <c r="U35" s="202">
+        <f t="shared" si="30"/>
+        <v>1834445.5355507859</v>
+      </c>
+      <c r="V35" s="87"/>
+      <c r="W35" s="44"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
       <c r="AA35" s="3"/>
       <c r="AB35" s="3"/>
-      <c r="AC35" s="3">
-        <f>AVERAGE(F35:I35)/1000</f>
-        <v>772.56600000000003</v>
-      </c>
-      <c r="AD35" s="45">
-        <f>AVERAGE(J35:M35)/1000</f>
-        <v>817.33950000000004</v>
-      </c>
-      <c r="AE35" s="45">
-        <f>AVERAGE(N35:Q35)/1000</f>
-        <v>894.67923038178628</v>
-      </c>
-      <c r="AF35" s="45">
-        <f>AVERAGE(R35:U35)/1000</f>
-        <v>1020.1161813887267</v>
-      </c>
-      <c r="AH35">
-        <v>775.4</v>
-      </c>
-      <c r="AI35" s="3">
-        <f>'figuring out social benefits'!G18-47</f>
-        <v>815.06799999999998</v>
-      </c>
-      <c r="AJ35" s="3">
-        <f>'figuring out social benefits'!H18+46</f>
-        <v>855.73299999999995</v>
-      </c>
-      <c r="AK35" s="3">
-        <f>'figuring out social benefits'!I18</f>
-        <v>973.27200000000005</v>
-      </c>
-      <c r="AL35" s="3">
-        <f>'figuring out social benefits'!J18</f>
-        <v>1013.1</v>
-      </c>
-      <c r="AM35" s="146" t="s">
-        <v>19</v>
-      </c>
+      <c r="AC35" s="3"/>
+      <c r="AD35" s="45"/>
+      <c r="AE35" s="45"/>
+      <c r="AF35" s="45"/>
+      <c r="AI35" s="32"/>
+      <c r="AJ35" s="32"/>
+      <c r="AK35" s="32"/>
+      <c r="AL35" s="32"/>
     </row>
     <row r="36" spans="1:39" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="86" t="s">
-        <v>383</v>
-      </c>
-      <c r="C36"/>
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>280</v>
+      </c>
+      <c r="C36" t="s">
+        <v>299</v>
+      </c>
       <c r="D36"/>
-      <c r="F36" s="202"/>
-      <c r="G36" s="202"/>
-      <c r="H36" s="202"/>
-      <c r="I36" s="202"/>
-      <c r="J36" s="202"/>
-      <c r="K36" s="202"/>
-      <c r="L36" s="202"/>
-      <c r="M36" s="301"/>
-      <c r="N36" s="303"/>
+      <c r="F36" s="202">
+        <v>753311</v>
+      </c>
+      <c r="G36" s="202">
+        <v>767353</v>
+      </c>
+      <c r="H36" s="202">
+        <v>779707</v>
+      </c>
+      <c r="I36" s="202">
+        <v>789893</v>
+      </c>
+      <c r="J36" s="202">
+        <v>797912</v>
+      </c>
+      <c r="K36" s="202">
+        <v>804655</v>
+      </c>
+      <c r="L36" s="202">
+        <v>824058</v>
+      </c>
+      <c r="M36" s="301">
+        <v>842733</v>
+      </c>
+      <c r="N36" s="303">
+        <f>VLOOKUP($C$36,'Haver NA'!$A$1:$J$34,10,0)</f>
+        <v>860594</v>
+      </c>
       <c r="O36" s="87">
-        <f>O39+O40</f>
-        <v>57000</v>
+        <f>N36*((($AJ$36/$AI$36)^0.25))+12000</f>
+        <v>883132.91447240114</v>
       </c>
       <c r="P36" s="87">
-        <f t="shared" ref="P36:T36" si="30">P39+P40</f>
-        <v>57000</v>
+        <f>O36*((($AJ$36/$AI$36)^0.25))+12000</f>
+        <v>905947.84259575198</v>
       </c>
       <c r="Q36" s="87">
-        <f t="shared" si="30"/>
-        <v>5000</v>
+        <f>P36*((($AJ$36/$AI$36)^0.25))+12000</f>
+        <v>929042.16445899184</v>
       </c>
       <c r="R36" s="87">
-        <f t="shared" si="30"/>
-        <v>5000</v>
+        <f>Q36*((($AK$36/$AJ$36)^0.25))+12000</f>
+        <v>971421.42409696849</v>
       </c>
       <c r="S36" s="87">
-        <f t="shared" si="30"/>
-        <v>0</v>
+        <f>R36*((($AK$36/$AJ$36)^0.25))</f>
+        <v>1003186.4664055918</v>
       </c>
       <c r="T36" s="87">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="U36" s="87"/>
-      <c r="V36" s="87"/>
-      <c r="W36" s="87"/>
-      <c r="X36" s="87"/>
-      <c r="Y36" s="87"/>
+        <f>S36*((($AK$36/$AJ$36)^0.25))</f>
+        <v>1035990.2112668242</v>
+      </c>
+      <c r="U36" s="87">
+        <f>T36*((($AK$36/$AJ$36)^0.25))</f>
+        <v>1069866.6237855225</v>
+      </c>
+      <c r="V36" s="87">
+        <f>U36*((($AL$36/$AK$36)^0.25))</f>
+        <v>1080647.7677858607</v>
+      </c>
+      <c r="W36" s="87">
+        <f>V36*((($AL$36/$AK$36)^0.25))</f>
+        <v>1091537.5543621723</v>
+      </c>
+      <c r="X36" s="87">
+        <f>W36*((($AL$36/$AK$36)^0.25))</f>
+        <v>1102537.0783156503</v>
+      </c>
+      <c r="Y36" s="87">
+        <f>X36*((($AL$36/$AK$36)^0.25))</f>
+        <v>1113647.4454798999</v>
+      </c>
       <c r="Z36" s="3"/>
       <c r="AA36" s="3"/>
       <c r="AB36" s="3"/>
-      <c r="AC36" s="3"/>
-      <c r="AD36" s="45"/>
-      <c r="AE36" s="45"/>
-      <c r="AF36" s="45"/>
-      <c r="AI36" s="3"/>
-      <c r="AJ36" s="3"/>
-      <c r="AK36" s="3"/>
-      <c r="AL36" s="3"/>
+      <c r="AC36" s="3">
+        <f>AVERAGE(F36:I36)/1000</f>
+        <v>772.56600000000003</v>
+      </c>
+      <c r="AD36" s="45">
+        <f>AVERAGE(J36:M36)/1000</f>
+        <v>817.33950000000004</v>
+      </c>
+      <c r="AE36" s="45">
+        <f>AVERAGE(N36:Q36)/1000</f>
+        <v>894.67923038178628</v>
+      </c>
+      <c r="AF36" s="45">
+        <f>AVERAGE(R36:U36)/1000</f>
+        <v>1020.1161813887267</v>
+      </c>
+      <c r="AH36">
+        <v>775.4</v>
+      </c>
+      <c r="AI36" s="3">
+        <f>'figuring out social benefits'!G18-47</f>
+        <v>815.06799999999998</v>
+      </c>
+      <c r="AJ36" s="3">
+        <f>'figuring out social benefits'!H18+46</f>
+        <v>855.73299999999995</v>
+      </c>
+      <c r="AK36" s="3">
+        <f>'figuring out social benefits'!I18</f>
+        <v>973.27200000000005</v>
+      </c>
+      <c r="AL36" s="3">
+        <f>'figuring out social benefits'!J18</f>
+        <v>1013.1</v>
+      </c>
+      <c r="AM36" s="146" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="37" spans="1:39" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="93" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B37" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C37" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D37"/>
       <c r="F37" s="202"/>
@@ -6704,7 +6730,7 @@
     </row>
     <row r="38" spans="1:39" s="274" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="281" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F38" s="202"/>
       <c r="G38" s="202"/>
@@ -6740,7 +6766,7 @@
     </row>
     <row r="39" spans="1:39" s="274" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="281" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F39" s="202"/>
       <c r="G39" s="202"/>
@@ -6776,7 +6802,7 @@
     </row>
     <row r="40" spans="1:39" s="274" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="281" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F40" s="202"/>
       <c r="G40" s="202"/>
@@ -6920,13 +6946,13 @@
     </row>
     <row r="42" spans="1:39" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="115" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B42" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C42" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D42"/>
       <c r="F42" s="202"/>
@@ -6971,7 +6997,7 @@
     </row>
     <row r="43" spans="1:39" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="117" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F43" s="202"/>
       <c r="G43" s="202"/>
@@ -6988,7 +7014,7 @@
       </c>
       <c r="N43" s="303">
         <f>N44+N45</f>
-        <v>301600</v>
+        <v>288700</v>
       </c>
       <c r="O43" s="87">
         <f>SUM(O44:O46)</f>
@@ -7049,8 +7075,7 @@
         <v>589000</v>
       </c>
       <c r="N44" s="303">
-        <f>1000*'figuring out UI'!O17</f>
-        <v>265700</v>
+        <v>252800</v>
       </c>
       <c r="O44" s="87">
         <f>1000*'figuring out UI'!P17</f>
@@ -7094,7 +7119,7 @@
       </c>
       <c r="AE44" s="45">
         <f>AVERAGE(N44:Q44)/1000</f>
-        <v>139.42500000000001</v>
+        <v>136.19999999999999</v>
       </c>
       <c r="AF44" s="45">
         <f t="shared" si="32"/>
@@ -7109,7 +7134,7 @@
     </row>
     <row r="45" spans="1:39" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="270" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F45" s="202"/>
       <c r="G45" s="202"/>
@@ -7151,7 +7176,7 @@
     </row>
     <row r="46" spans="1:39" s="274" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="273" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F46" s="202"/>
       <c r="G46" s="202"/>
@@ -7349,13 +7374,13 @@
     </row>
     <row r="49" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="117" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B49" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C49" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D49"/>
       <c r="F49" s="202"/>
@@ -7409,13 +7434,13 @@
     </row>
     <row r="50" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="117" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B50" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C50" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D50"/>
       <c r="F50" s="202"/>
@@ -7472,71 +7497,71 @@
         <v>149</v>
       </c>
       <c r="F51" s="197">
-        <f>F34-F37-F41-F35</f>
+        <f>F34-F37-F41-F36</f>
         <v>1440187</v>
       </c>
       <c r="G51" s="197">
-        <f>G34-G37-G41-G35</f>
+        <f>G34-G37-G41-G36</f>
         <v>1503410</v>
       </c>
       <c r="H51" s="201">
-        <f>H34-H37-H41-H35</f>
+        <f>H34-H37-H41-H36</f>
         <v>1508652</v>
       </c>
       <c r="I51" s="197">
-        <f>I34-I37-I41-I35</f>
+        <f>I34-I37-I41-I36</f>
         <v>1513957</v>
       </c>
       <c r="J51" s="201">
-        <f>J34-J37-J41-J35-J48</f>
+        <f>J34-J37-J41-J36-J48</f>
         <v>1521941</v>
       </c>
       <c r="K51" s="201">
-        <f>K34-K37-K41-K35-K48</f>
+        <f>K34-K37-K41-K36-K48</f>
         <v>1574462</v>
       </c>
       <c r="L51" s="201">
-        <f>L34-L37-L42-L35-L48</f>
+        <f>L34-L37-L42-L36-L48</f>
         <v>1648724</v>
       </c>
       <c r="M51" s="303">
         <v>1669801</v>
       </c>
       <c r="N51" s="306">
-        <f>N34-N37-N41-N35-N48-N38</f>
-        <v>1675893</v>
+        <f>N34-N37-N43-N36-N48-N38</f>
+        <v>1725462</v>
       </c>
       <c r="O51" s="88">
         <f>N51*(1+O53)</f>
-        <v>1663323.8025</v>
+        <v>1712521.0350000001</v>
       </c>
       <c r="P51" s="88">
         <f t="shared" ref="P51:Q51" si="37">O51*(1+P53)</f>
-        <v>1650848.87398125</v>
+        <v>1699677.1272375002</v>
       </c>
       <c r="Q51" s="88">
         <f t="shared" si="37"/>
-        <v>1638467.5074263907</v>
+        <v>1686929.548783219</v>
       </c>
       <c r="R51" s="88">
         <f>Q51*(1+R53)</f>
-        <v>1663044.5200377863</v>
+        <v>1712233.4920149671</v>
       </c>
       <c r="S51" s="88">
         <f t="shared" ref="S51:U51" si="38">R51*(1+S53)</f>
-        <v>1687990.187838353</v>
+        <v>1737916.9943951915</v>
       </c>
       <c r="T51" s="88">
         <f t="shared" si="38"/>
-        <v>1713310.0406559282</v>
+        <v>1763985.7493111193</v>
       </c>
       <c r="U51" s="88">
         <f t="shared" si="38"/>
-        <v>1739009.691265767</v>
+        <v>1790445.5355507859</v>
       </c>
       <c r="V51" s="88">
         <f>U51*(1+V53)</f>
-        <v>1756399.7881784246</v>
+        <v>1808349.9909062937</v>
       </c>
       <c r="W51" s="44"/>
       <c r="X51" s="3"/>
@@ -7545,7 +7570,7 @@
       <c r="AA51" s="3"/>
       <c r="AB51" s="3"/>
       <c r="AC51" s="3">
-        <f>AD34-AD37-AD41-AD35-AD48</f>
+        <f>AD34-AD37-AD41-AD36-AD48</f>
         <v>-1666.23125</v>
       </c>
       <c r="AD51" s="45">
@@ -7554,23 +7579,23 @@
       </c>
       <c r="AE51" s="45">
         <f>AVERAGE(N51:Q51)/1000</f>
-        <v>1657.1332959769102</v>
+        <v>1706.1474277551797</v>
       </c>
       <c r="AF51" s="45">
         <f t="shared" si="32"/>
-        <v>1700.8386099494589</v>
+        <v>1751.1454428180161</v>
       </c>
       <c r="AG51" s="3"/>
       <c r="AI51" s="3">
-        <f>AI34-AI37-AI41-AI35-AI48</f>
+        <f>AI34-AI37-AI41-AI36-AI48</f>
         <v>1571.7041322167745</v>
       </c>
       <c r="AJ51" s="3">
-        <f>AJ34-AJ37-AJ41-AJ35</f>
+        <f>AJ34-AJ37-AJ41-AJ36</f>
         <v>1644.9470557811208</v>
       </c>
       <c r="AK51" s="3">
-        <f>AK34-AK37-AK41-AK35</f>
+        <f>AK34-AK37-AK41-AK36</f>
         <v>1684.8968956203648</v>
       </c>
       <c r="AL51" s="3"/>
@@ -7586,7 +7611,7 @@
     </row>
     <row r="52" spans="1:41" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A52" s="169" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C52" s="269"/>
       <c r="D52" s="269"/>
@@ -7620,7 +7645,7 @@
       </c>
       <c r="N52" s="227">
         <f t="shared" ref="N52" si="40">N51/M51-1</f>
-        <v>3.6483389338011207E-3</v>
+        <v>3.333391224463278E-2</v>
       </c>
       <c r="O52" s="226"/>
       <c r="P52" s="226"/>
@@ -7649,7 +7674,7 @@
     </row>
     <row r="53" spans="1:41" s="185" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="169" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F53" s="207"/>
       <c r="G53" s="207"/>
@@ -7660,37 +7685,37 @@
       <c r="L53" s="200"/>
       <c r="M53" s="301"/>
       <c r="N53" s="302"/>
-      <c r="O53" s="371">
+      <c r="O53" s="175">
         <v>-7.4999999999999997E-3</v>
       </c>
-      <c r="P53" s="371">
+      <c r="P53" s="175">
         <v>-7.4999999999999997E-3</v>
       </c>
-      <c r="Q53" s="371">
+      <c r="Q53" s="175">
         <v>-7.4999999999999997E-3</v>
       </c>
-      <c r="R53" s="371">
+      <c r="R53" s="175">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="S53" s="371">
+      <c r="S53" s="175">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="T53" s="371">
+      <c r="T53" s="175">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="U53" s="371">
+      <c r="U53" s="175">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="V53" s="371">
+      <c r="V53" s="175">
         <v>0.01</v>
       </c>
       <c r="W53" s="175"/>
       <c r="AD53" s="187">
-        <f>AD35+AD37+AD41+AD48</f>
+        <f>AD36+AD37+AD41+AD48</f>
         <v>1666.23125</v>
       </c>
       <c r="AI53" s="187">
-        <f>AI35+AI37+AI41+AI48</f>
+        <f>AI36+AI37+AI41+AI48</f>
         <v>1749.068</v>
       </c>
       <c r="AM53" s="234"/>
@@ -7702,9 +7727,7 @@
       </c>
     </row>
     <row r="54" spans="1:41" s="35" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="369" t="s">
-        <v>384</v>
-      </c>
+      <c r="A54"/>
       <c r="B54"/>
       <c r="E54"/>
       <c r="F54" s="197"/>
@@ -7716,66 +7739,25 @@
       <c r="L54" s="197"/>
       <c r="M54" s="301"/>
       <c r="N54" s="307"/>
-      <c r="O54" s="370">
-        <v>-6.3632887456834403E-2</v>
-      </c>
-      <c r="P54" s="370">
-        <v>-7.9931894922583901E-2</v>
-      </c>
-      <c r="Q54" s="370">
-        <v>-8.6756859644453205E-2</v>
-      </c>
-      <c r="R54" s="370">
-        <v>-8.9862037306567295E-3</v>
-      </c>
-      <c r="S54" s="370">
-        <v>3.8651597394421299E-3</v>
-      </c>
-      <c r="T54" s="370">
-        <v>1.1725230639126E-2</v>
-      </c>
-      <c r="U54" s="370">
-        <v>1.16157960249124E-2</v>
-      </c>
-      <c r="V54" s="370">
-        <v>1.19741177939638E-2</v>
-      </c>
-      <c r="W54" s="370">
-        <v>1.0529894387357699E-2</v>
-      </c>
-      <c r="X54" s="370">
-        <v>1.04951834328872E-2</v>
-      </c>
-      <c r="Y54" s="370">
-        <v>1.0389341007698101E-2</v>
-      </c>
-      <c r="Z54" s="370">
-        <v>8.6277748225544997E-3</v>
-      </c>
-      <c r="AA54" s="370">
-        <v>7.1591239986168497E-3</v>
-      </c>
-      <c r="AB54" s="370">
-        <v>5.96832992832974E-3</v>
-      </c>
-      <c r="AC54" s="370">
-        <v>5.9337252984801303E-3</v>
-      </c>
-      <c r="AD54" s="370">
-        <v>2.02106260403014E-2</v>
-      </c>
-      <c r="AE54" s="370">
-        <v>2.1392569623424101E-2</v>
-      </c>
-      <c r="AF54" s="370">
-        <v>2.1325889786803401E-2</v>
-      </c>
-      <c r="AG54" s="370">
-        <v>2.0882347819037202E-2</v>
-      </c>
-      <c r="AH54" s="370">
-        <v>1.37695642658169E-2</v>
-      </c>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="3"/>
+      <c r="W54" s="44"/>
+      <c r="X54" s="44"/>
+      <c r="Y54" s="44"/>
+      <c r="Z54" s="44"/>
+      <c r="AA54" s="44"/>
+      <c r="AB54" s="44"/>
+      <c r="AC54" s="44"/>
+      <c r="AD54" s="45"/>
+      <c r="AE54" s="45"/>
+      <c r="AF54" s="45"/>
+      <c r="AG54" s="44"/>
       <c r="AI54" s="44"/>
       <c r="AJ54" s="44"/>
       <c r="AK54" s="44"/>
@@ -7787,10 +7769,10 @@
         <v>4</v>
       </c>
       <c r="B55" s="141" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C55" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D55"/>
       <c r="E55" s="141"/>
@@ -7883,7 +7865,7 @@
     </row>
     <row r="56" spans="1:41" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="134" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F56" s="197"/>
       <c r="G56" s="197"/>
@@ -7946,7 +7928,7 @@
     </row>
     <row r="57" spans="1:41" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="219" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F57" s="197"/>
       <c r="G57" s="197"/>
@@ -7980,10 +7962,10 @@
     </row>
     <row r="58" spans="1:41" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="271" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C58" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D58"/>
       <c r="F58" s="197"/>
@@ -8043,10 +8025,10 @@
     </row>
     <row r="59" spans="1:41" s="35" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="113" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C59" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D59"/>
       <c r="F59" s="197"/>
@@ -8106,13 +8088,13 @@
     </row>
     <row r="60" spans="1:41" s="185" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="272" t="s">
+        <v>281</v>
+      </c>
+      <c r="B60" s="185" t="s">
         <v>280</v>
       </c>
-      <c r="B60" s="185" t="s">
-        <v>279</v>
-      </c>
       <c r="C60" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D60"/>
       <c r="F60" s="207"/>
@@ -8154,13 +8136,13 @@
     </row>
     <row r="61" spans="1:41" s="185" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="272" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B61" s="185" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C61" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D61"/>
       <c r="F61" s="207"/>
@@ -8202,13 +8184,13 @@
     </row>
     <row r="62" spans="1:41" s="185" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="272" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B62" s="185" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C62" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D62"/>
       <c r="F62" s="207"/>
@@ -8250,7 +8232,7 @@
     </row>
     <row r="63" spans="1:41" s="185" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="219" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C63"/>
       <c r="D63"/>
@@ -8286,7 +8268,7 @@
     </row>
     <row r="64" spans="1:41" s="274" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="273" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F64" s="197"/>
       <c r="G64" s="197"/>
@@ -8326,7 +8308,7 @@
     </row>
     <row r="65" spans="1:39" s="274" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="273" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F65" s="197"/>
       <c r="G65" s="197"/>
@@ -8369,7 +8351,7 @@
     </row>
     <row r="66" spans="1:39" s="274" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="273" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F66" s="197"/>
       <c r="G66" s="197"/>
@@ -8415,7 +8397,7 @@
     </row>
     <row r="67" spans="1:39" s="274" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="273" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F67" s="197"/>
       <c r="G67" s="197"/>
@@ -8508,10 +8490,10 @@
         <v>16</v>
       </c>
       <c r="B69" s="35" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C69" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D69"/>
       <c r="F69" s="197">
@@ -8567,7 +8549,7 @@
     </row>
     <row r="70" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="35" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F70" s="203">
         <f t="shared" ref="F70:L70" si="44">F69-F93</f>
@@ -8627,7 +8609,7 @@
     </row>
     <row r="71" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="136" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F71" s="197"/>
       <c r="G71" s="197"/>
@@ -8705,13 +8687,13 @@
     </row>
     <row r="72" spans="1:39" s="138" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="137" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B72" s="138" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C72" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D72"/>
       <c r="F72" s="204"/>
@@ -8753,7 +8735,7 @@
     </row>
     <row r="73" spans="1:39" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="134" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F73" s="197"/>
       <c r="G73" s="197"/>
@@ -8831,7 +8813,7 @@
     </row>
     <row r="74" spans="1:39" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="219" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F74" s="197"/>
       <c r="G74" s="197"/>
@@ -8901,10 +8883,10 @@
     </row>
     <row r="75" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="113" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C75" s="35" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F75" s="197"/>
       <c r="G75" s="197"/>
@@ -8962,10 +8944,10 @@
     </row>
     <row r="76" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="113" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C76" s="35" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F76" s="197"/>
       <c r="G76" s="197"/>
@@ -9013,10 +8995,10 @@
     </row>
     <row r="77" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="113" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C77" s="35" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F77" s="197"/>
       <c r="G77" s="197"/>
@@ -9064,7 +9046,7 @@
     </row>
     <row r="78" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="220" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F78" s="197"/>
       <c r="G78" s="197"/>
@@ -9134,7 +9116,7 @@
     </row>
     <row r="79" spans="1:39" s="274" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="282" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F79" s="197"/>
       <c r="G79" s="197"/>
@@ -9204,7 +9186,7 @@
     </row>
     <row r="80" spans="1:39" s="274" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="282" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F80" s="197"/>
       <c r="G80" s="197"/>
@@ -9274,7 +9256,7 @@
     </row>
     <row r="81" spans="1:39" s="274" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="282" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F81" s="197"/>
       <c r="G81" s="197"/>
@@ -9344,7 +9326,7 @@
     </row>
     <row r="82" spans="1:39" s="274" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="282" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F82" s="197"/>
       <c r="G82" s="197"/>
@@ -9414,7 +9396,7 @@
     </row>
     <row r="83" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="145" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B83" s="141"/>
       <c r="E83" s="141"/>
@@ -9531,10 +9513,10 @@
         <v>17</v>
       </c>
       <c r="B85" s="35" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C85" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D85"/>
       <c r="F85" s="206">
@@ -9592,13 +9574,13 @@
     </row>
     <row r="86" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="114" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B86" s="35" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C86" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D86"/>
       <c r="F86" s="197"/>
@@ -9670,7 +9652,7 @@
     </row>
     <row r="87" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="114" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C87"/>
       <c r="D87"/>
@@ -9737,7 +9719,7 @@
     </row>
     <row r="88" spans="1:39" s="185" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A88" s="169" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F88" s="207"/>
       <c r="G88" s="207"/>
@@ -9802,7 +9784,7 @@
     </row>
     <row r="89" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="114" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F89" s="207"/>
       <c r="G89" s="207"/>
@@ -9850,7 +9832,7 @@
     </row>
     <row r="90" spans="1:39" s="285" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="284" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F90" s="300"/>
       <c r="G90" s="300"/>
@@ -9898,7 +9880,7 @@
     </row>
     <row r="91" spans="1:39" s="285" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="284" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F91" s="300"/>
       <c r="G91" s="300"/>
@@ -9946,7 +9928,7 @@
     </row>
     <row r="92" spans="1:39" s="285" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="284" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F92" s="300"/>
       <c r="G92" s="300"/>
@@ -9994,13 +9976,13 @@
     </row>
     <row r="93" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="35" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B93" s="35" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C93" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D93"/>
       <c r="F93" s="206">
@@ -10105,7 +10087,7 @@
     </row>
     <row r="94" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="141" t="s">
-        <v>382</v>
+        <v>161</v>
       </c>
       <c r="B94" s="141"/>
       <c r="E94" s="141"/>
@@ -10142,39 +10124,39 @@
       </c>
       <c r="N94" s="306">
         <f>N51+N48+N37+N43+N38</f>
-        <v>2027793</v>
+        <v>2064462</v>
       </c>
       <c r="O94" s="142">
-        <f>O51+O48+O39+O40</f>
-        <v>1763701.3980484896</v>
+        <f>O51+O48+O37+O43+O38+O39+O40</f>
+        <v>3156898.6305484897</v>
       </c>
       <c r="P94" s="142">
-        <f t="shared" ref="P94:Z94" si="53">P51+P48+P39+P40</f>
-        <v>1750848.87398125</v>
+        <f t="shared" ref="O94:Z94" si="53">P51+P48+P37+P43+P38+P39+P40</f>
+        <v>1923677.1272375002</v>
       </c>
       <c r="Q94" s="142">
         <f t="shared" si="53"/>
-        <v>1686467.5074263907</v>
+        <v>1734929.548783219</v>
       </c>
       <c r="R94" s="142">
         <f t="shared" si="53"/>
-        <v>1683044.5200377863</v>
+        <v>1732233.4920149671</v>
       </c>
       <c r="S94" s="142">
         <f t="shared" si="53"/>
-        <v>1687990.187838353</v>
+        <v>1737916.9943951915</v>
       </c>
       <c r="T94" s="142">
         <f t="shared" si="53"/>
-        <v>1713310.0406559282</v>
+        <v>1763985.7493111193</v>
       </c>
       <c r="U94" s="142">
         <f t="shared" si="53"/>
-        <v>1739009.691265767</v>
+        <v>1790445.5355507859</v>
       </c>
       <c r="V94" s="142">
         <f t="shared" si="53"/>
-        <v>1756399.7881784246</v>
+        <v>1808349.9909062937</v>
       </c>
       <c r="W94" s="142">
         <f t="shared" si="53"/>
@@ -10196,7 +10178,7 @@
     </row>
     <row r="95" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="141" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B95" s="141"/>
       <c r="E95" s="141"/>
@@ -10207,14 +10189,14 @@
       <c r="J95" s="197"/>
       <c r="K95" s="197"/>
       <c r="L95" s="203">
-        <f>L93+L35</f>
+        <f>L93+L36</f>
         <v>1336698</v>
       </c>
       <c r="M95" s="301">
         <v>1328805</v>
       </c>
       <c r="N95" s="310">
-        <f t="shared" ref="N95:Z95" si="54">N93+N35</f>
+        <f t="shared" ref="N95:Z95" si="54">N93+N36</f>
         <v>1372787</v>
       </c>
       <c r="O95" s="143">
@@ -10284,10 +10266,10 @@
         <v>15</v>
       </c>
       <c r="B97" s="35" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C97" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D97"/>
       <c r="F97" s="197">
@@ -10354,7 +10336,7 @@
     </row>
     <row r="98" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="35" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F98" s="203">
         <f t="shared" ref="F98:K98" si="57">F97-F100</f>
@@ -10439,13 +10421,13 @@
     </row>
     <row r="100" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="35" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B100" s="35" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C100" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D100"/>
       <c r="F100" s="197">
@@ -10538,7 +10520,7 @@
     </row>
     <row r="101" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="169" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F101" s="207"/>
       <c r="G101" s="207"/>
@@ -10574,7 +10556,7 @@
     </row>
     <row r="102" spans="1:39" s="153" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A102" s="153" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F102" s="208">
         <f t="shared" ref="F102:L102" si="61">F93/F100</f>
@@ -10624,10 +10606,10 @@
         <v>18</v>
       </c>
       <c r="B103" s="35" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C103" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D103"/>
       <c r="F103" s="197">
@@ -10694,7 +10676,7 @@
     </row>
     <row r="104" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="169" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B104" s="35"/>
       <c r="C104" s="35"/>
@@ -10746,10 +10728,10 @@
     </row>
     <row r="105" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="169" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B105" s="35" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C105" s="35"/>
       <c r="D105" s="35"/>
@@ -10802,13 +10784,13 @@
     </row>
     <row r="106" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="35" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B106" s="35" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C106" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D106"/>
       <c r="F106" s="197"/>
@@ -10915,7 +10897,7 @@
     </row>
     <row r="108" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="169" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B108" s="35"/>
       <c r="C108" s="35"/>
@@ -10955,7 +10937,7 @@
     </row>
     <row r="109" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="169" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F109" s="207"/>
       <c r="G109" s="207"/>
@@ -11006,7 +10988,7 @@
     </row>
     <row r="110" spans="1:39" s="185" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="169" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F110" s="207"/>
       <c r="G110" s="207"/>
@@ -11039,7 +11021,7 @@
     </row>
     <row r="111" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="35" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F111" s="201">
         <f t="shared" ref="F111:L111" si="69">F97+F47-F93</f>
@@ -11124,7 +11106,7 @@
     </row>
     <row r="112" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="141" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B112" s="141"/>
       <c r="E112" s="141"/>
@@ -11211,7 +11193,7 @@
     </row>
     <row r="113" spans="1:39" s="141" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="141" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C113" s="35"/>
       <c r="D113" s="35"/>
@@ -11532,20 +11514,20 @@
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B2" s="157" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B3" s="157" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="157" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C4" s="157" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D4" s="157">
         <v>1</v>
@@ -11586,7 +11568,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="157" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B5" s="157">
         <v>0.4</v>
@@ -11690,7 +11672,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="157" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D7" s="157">
         <f>SUMPRODUCT(C5:C6,B5:B6)</f>
@@ -11743,7 +11725,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B8" s="160" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C8" s="160"/>
       <c r="D8" s="161">
@@ -11753,7 +11735,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B9" s="157" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D9" s="162">
         <f>SUMPRODUCT(D5:D6,$C5:$C6)</f>
@@ -11813,10 +11795,10 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="157" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C14" s="157" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D14" s="157">
         <v>1</v>
@@ -11959,7 +11941,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B18" s="157" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D18" s="157">
         <f>D15*$C$15+D16*$C$16+D17*$C17</f>
@@ -11996,7 +11978,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B19" s="157" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D19" s="157">
         <f>SUMPRODUCT(C15:C17,B15:B17)</f>
@@ -12005,7 +11987,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B20" s="161" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C20" s="161"/>
       <c r="D20" s="165">
@@ -12079,12 +12061,12 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="157" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="157" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -12102,7 +12084,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B26" s="157" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C26" s="157">
         <v>1065.5</v>
@@ -12114,7 +12096,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B27" s="157" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C27" s="157">
         <v>1078.0999999999999</v>
@@ -12157,20 +12139,20 @@
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B2" s="157" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B3" s="157" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="157" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C4" s="157" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D4" s="157">
         <v>1</v>
@@ -12211,7 +12193,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="157" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B5" s="157">
         <v>0.4</v>
@@ -12315,7 +12297,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="157" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D7" s="157">
         <f>SUMPRODUCT(C5:C6,B5:B6)</f>
@@ -12368,7 +12350,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B8" s="160" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C8" s="160"/>
       <c r="D8" s="161">
@@ -12378,7 +12360,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B9" s="157" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D9" s="162">
         <f>SUMPRODUCT(D5:D6,$C5:$C6)</f>
@@ -12438,10 +12420,10 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="157" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C14" s="157" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D14" s="157">
         <v>1</v>
@@ -12584,7 +12566,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B18" s="157" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D18" s="157">
         <f>D15*$C$15+D16*$C$16+D17*$C17</f>
@@ -12621,7 +12603,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B19" s="157" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D19" s="157">
         <f>SUMPRODUCT(C15:C17,B15:B17)</f>
@@ -12630,7 +12612,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B20" s="161" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C20" s="161"/>
       <c r="D20" s="165">
@@ -12704,12 +12686,12 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="157" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="157" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -12727,7 +12709,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B26" s="157" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C26" s="157">
         <v>1065.5</v>
@@ -12739,7 +12721,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B27" s="157" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C27" s="157">
         <v>1078.0999999999999</v>
@@ -12982,10 +12964,10 @@
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="29">
@@ -13008,7 +12990,7 @@
       </c>
       <c r="M12" s="25"/>
       <c r="N12" s="25" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O12" s="25"/>
       <c r="P12" s="25"/>
@@ -13018,7 +13000,7 @@
     </row>
     <row r="13" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="130" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>
@@ -13054,7 +13036,7 @@
       </c>
       <c r="M13" s="25"/>
       <c r="N13" s="25" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O13" s="25"/>
       <c r="P13" s="25"/>
@@ -13072,12 +13054,12 @@
       <c r="L14" s="25"/>
       <c r="M14" s="25"/>
       <c r="N14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F15" s="94">
         <f>main!K102</f>
@@ -13110,7 +13092,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
@@ -13153,7 +13135,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="328" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B1" s="328"/>
       <c r="C1" s="35"/>
@@ -13175,32 +13157,32 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="350" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B2" s="107"/>
       <c r="C2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="350"/>
       <c r="B3" s="108"/>
       <c r="C3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="350"/>
       <c r="B4" s="109"/>
       <c r="C4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="350"/>
       <c r="B5" s="98"/>
       <c r="C5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
@@ -13211,13 +13193,13 @@
       <c r="E7" s="341"/>
       <c r="F7" s="342"/>
       <c r="G7" s="340" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H7" s="341"/>
       <c r="I7" s="341"/>
       <c r="J7" s="342"/>
       <c r="K7" s="340" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L7" s="341"/>
       <c r="M7" s="341"/>
@@ -13225,7 +13207,7 @@
     </row>
     <row r="8" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C8" s="96" t="s">
         <v>5</v>
@@ -13260,7 +13242,7 @@
     </row>
     <row r="9" spans="1:32" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="106" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B9" s="106"/>
       <c r="C9" s="78"/>
@@ -13278,7 +13260,7 @@
     </row>
     <row r="10" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="86" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D10">
         <v>179.27799999999999</v>
@@ -13307,7 +13289,7 @@
     </row>
     <row r="11" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="86" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D11">
         <v>186.02099999999999</v>
@@ -13336,7 +13318,7 @@
     </row>
     <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="86" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D12">
         <v>1862.4</v>
@@ -13365,7 +13347,7 @@
     </row>
     <row r="13" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" s="86" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D13">
         <v>62.7</v>
@@ -13394,7 +13376,7 @@
     </row>
     <row r="14" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="86" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D14">
         <v>0.6</v>
@@ -13423,7 +13405,7 @@
     </row>
     <row r="15" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="86" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D15">
         <v>1249.5219999999999</v>
@@ -13452,7 +13434,7 @@
     </row>
     <row r="16" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="86" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D16">
         <v>1574.779</v>
@@ -13481,7 +13463,7 @@
     </row>
     <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B17" s="86" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D17">
         <v>3376.8</v>
@@ -13510,7 +13492,7 @@
     </row>
     <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B18" s="86" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D18">
         <v>180.5</v>
@@ -13539,7 +13521,7 @@
     </row>
     <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B19" s="86" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D19">
         <v>74.5</v>
@@ -13568,7 +13550,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D20">
         <v>182.97800000000001</v>
@@ -13597,13 +13579,13 @@
     </row>
     <row r="23" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="110" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B23" s="110"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D24" s="100">
         <f>D27</f>
@@ -13641,7 +13623,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D25" s="102"/>
       <c r="E25" s="102">
@@ -13668,7 +13650,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D26" s="102">
         <v>1842.1</v>
@@ -13704,7 +13686,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D27" s="102">
         <f>D10</f>
@@ -13741,7 +13723,7 @@
     </row>
     <row r="28" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="99" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D28" s="103"/>
       <c r="E28" s="103"/>
@@ -13792,13 +13774,13 @@
     </row>
     <row r="31" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="110" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B31" s="110"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D32" s="100">
         <f>D35-D33</f>
@@ -13836,7 +13818,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D33" s="102">
         <v>16</v>
@@ -13867,7 +13849,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D34" s="102">
         <v>1842.1</v>
@@ -13903,7 +13885,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D35" s="102">
         <f>D11</f>
@@ -13940,7 +13922,7 @@
     </row>
     <row r="36" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="99" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D36" s="103"/>
       <c r="E36" s="103"/>
@@ -13993,7 +13975,7 @@
     </row>
     <row r="39" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="110" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B39" s="110"/>
       <c r="D39" s="102"/>
@@ -14007,7 +13989,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D40" s="100">
         <v>1835.9308286849882</v>
@@ -14036,7 +14018,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D41" s="101">
         <v>1842.1</v>
@@ -14071,7 +14053,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D42" s="102">
         <f>D12</f>
@@ -14108,7 +14090,7 @@
     </row>
     <row r="43" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="99" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D43" s="103"/>
       <c r="E43" s="103"/>
@@ -14159,7 +14141,7 @@
     </row>
     <row r="46" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="110" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B46" s="110"/>
       <c r="D46" s="102"/>
@@ -14173,7 +14155,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D47" s="100">
         <v>58.885625915856416</v>
@@ -14202,7 +14184,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D48" s="101">
         <v>62.7</v>
@@ -14237,7 +14219,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D49" s="102">
         <f>D13</f>
@@ -14274,7 +14256,7 @@
     </row>
     <row r="50" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="99" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D50" s="103"/>
       <c r="E50" s="103"/>
@@ -14315,13 +14297,13 @@
     </row>
     <row r="53" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A53" s="105" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B53" s="105"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D54" s="100">
         <f>D57</f>
@@ -14359,7 +14341,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D55" s="102"/>
       <c r="E55" s="100">
@@ -14386,7 +14368,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D56" s="102">
         <f>D57</f>
@@ -14423,7 +14405,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D57" s="102">
         <f>D15</f>
@@ -14460,7 +14442,7 @@
     </row>
     <row r="58" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="99" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D58" s="103"/>
       <c r="E58" s="103"/>
@@ -14511,13 +14493,13 @@
     </row>
     <row r="61" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A61" s="105" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B61" s="105"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="100">
         <f>D65</f>
@@ -14555,7 +14537,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="102"/>
       <c r="E63" s="100">
@@ -14582,7 +14564,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D64" s="102">
         <v>1842.1</v>
@@ -14618,7 +14600,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D65" s="102">
         <f>D16</f>
@@ -14655,7 +14637,7 @@
     </row>
     <row r="66" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="99" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D66" s="103"/>
       <c r="E66" s="103"/>
@@ -14708,7 +14690,7 @@
     </row>
     <row r="69" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A69" s="105" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B69" s="105"/>
       <c r="D69" s="102"/>
@@ -14756,7 +14738,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D71" s="102">
         <f>D19</f>
@@ -14793,7 +14775,7 @@
     </row>
     <row r="72" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="99" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D72" s="103"/>
       <c r="E72" s="103"/>
@@ -14844,7 +14826,7 @@
     </row>
     <row r="75" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A75" s="105" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B75" s="105"/>
       <c r="D75" s="102"/>
@@ -14858,7 +14840,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D76" s="100">
         <f>D81</f>
@@ -14895,7 +14877,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F77" s="102">
         <f>((SUM($F$78:$I$79)/4)/6)*4</f>
@@ -14924,7 +14906,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B78" s="111" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F78" s="102">
         <v>300</v>
@@ -14943,7 +14925,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B79" s="112" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F79" s="102">
         <v>17</v>
@@ -14962,7 +14944,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D80" s="102">
         <f>D76+D77</f>
@@ -14999,7 +14981,7 @@
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D81" s="102">
         <f>D20</f>
@@ -15036,7 +15018,7 @@
     </row>
     <row r="82" spans="2:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="99" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D82" s="103"/>
       <c r="E82" s="103"/>
@@ -15103,68 +15085,68 @@
       <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" s="351" t="s">
+      <c r="A2" s="356" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="351"/>
-      <c r="C2" s="351"/>
-      <c r="D2" s="351"/>
-      <c r="E2" s="351"/>
-      <c r="F2" s="351"/>
-      <c r="G2" s="351"/>
-      <c r="H2" s="351"/>
-      <c r="I2" s="351"/>
-      <c r="J2" s="351"/>
+      <c r="B2" s="356"/>
+      <c r="C2" s="356"/>
+      <c r="D2" s="356"/>
+      <c r="E2" s="356"/>
+      <c r="F2" s="356"/>
+      <c r="G2" s="356"/>
+      <c r="H2" s="356"/>
+      <c r="I2" s="356"/>
+      <c r="J2" s="356"/>
       <c r="K2" s="77"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="351" t="s">
+      <c r="A3" s="356" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="351"/>
-      <c r="C3" s="351"/>
-      <c r="D3" s="351"/>
-      <c r="E3" s="351"/>
-      <c r="F3" s="351"/>
-      <c r="G3" s="351"/>
-      <c r="H3" s="351"/>
-      <c r="I3" s="351"/>
-      <c r="J3" s="351"/>
+      <c r="B3" s="356"/>
+      <c r="C3" s="356"/>
+      <c r="D3" s="356"/>
+      <c r="E3" s="356"/>
+      <c r="F3" s="356"/>
+      <c r="G3" s="356"/>
+      <c r="H3" s="356"/>
+      <c r="I3" s="356"/>
+      <c r="J3" s="356"/>
       <c r="K3" s="77"/>
     </row>
     <row r="4" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="352"/>
-      <c r="B4" s="352"/>
-      <c r="C4" s="352"/>
-      <c r="D4" s="352"/>
-      <c r="E4" s="352"/>
-      <c r="F4" s="352"/>
-      <c r="G4" s="352"/>
-      <c r="H4" s="352"/>
-      <c r="I4" s="352"/>
-      <c r="J4" s="352"/>
-      <c r="K4" s="357" t="s">
+      <c r="A4" s="357"/>
+      <c r="B4" s="357"/>
+      <c r="C4" s="357"/>
+      <c r="D4" s="357"/>
+      <c r="E4" s="357"/>
+      <c r="F4" s="357"/>
+      <c r="G4" s="357"/>
+      <c r="H4" s="357"/>
+      <c r="I4" s="357"/>
+      <c r="J4" s="357"/>
+      <c r="K4" s="362" t="s">
         <v>160</v>
       </c>
-      <c r="L4" s="357"/>
-      <c r="M4" s="357"/>
-      <c r="N4" s="357"/>
+      <c r="L4" s="362"/>
+      <c r="M4" s="362"/>
+      <c r="N4" s="362"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="48"/>
-      <c r="C5" s="353" t="s">
+      <c r="C5" s="358" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="354"/>
-      <c r="E5" s="354"/>
-      <c r="F5" s="354"/>
-      <c r="G5" s="354"/>
-      <c r="H5" s="354"/>
-      <c r="I5" s="354"/>
-      <c r="J5" s="355"/>
+      <c r="D5" s="359"/>
+      <c r="E5" s="359"/>
+      <c r="F5" s="359"/>
+      <c r="G5" s="359"/>
+      <c r="H5" s="359"/>
+      <c r="I5" s="359"/>
+      <c r="J5" s="360"/>
       <c r="K5" s="78"/>
-      <c r="L5" s="356" t="s">
+      <c r="L5" s="361" t="s">
         <v>107</v>
       </c>
       <c r="M5" s="327"/>
@@ -15175,16 +15157,16 @@
         <v>109</v>
       </c>
       <c r="B6" s="49"/>
-      <c r="C6" s="359">
+      <c r="C6" s="352">
         <v>2020</v>
       </c>
-      <c r="D6" s="360"/>
-      <c r="E6" s="360"/>
-      <c r="F6" s="360"/>
-      <c r="G6" s="360"/>
-      <c r="H6" s="360"/>
-      <c r="I6" s="360"/>
-      <c r="J6" s="361"/>
+      <c r="D6" s="353"/>
+      <c r="E6" s="353"/>
+      <c r="F6" s="353"/>
+      <c r="G6" s="353"/>
+      <c r="H6" s="353"/>
+      <c r="I6" s="353"/>
+      <c r="J6" s="354"/>
       <c r="K6" s="78" t="s">
         <v>135</v>
       </c>
@@ -15656,12 +15638,12 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="K23" s="362" t="s">
+      <c r="K23" s="355" t="s">
         <v>108</v>
       </c>
-      <c r="L23" s="362"/>
-      <c r="M23" s="362"/>
-      <c r="N23" s="362"/>
+      <c r="L23" s="355"/>
+      <c r="M23" s="355"/>
+      <c r="N23" s="355"/>
       <c r="O23" s="35" t="s">
         <v>146</v>
       </c>
@@ -15830,8 +15812,8 @@
       <c r="S27" s="72"/>
     </row>
     <row r="28" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="I28" s="358" t="s">
-        <v>257</v>
+      <c r="I28" s="351" t="s">
+        <v>258</v>
       </c>
       <c r="J28" s="82" t="s">
         <v>144</v>
@@ -15880,7 +15862,7 @@
       <c r="H29">
         <v>67</v>
       </c>
-      <c r="I29" s="358"/>
+      <c r="I29" s="351"/>
       <c r="J29" s="82" t="s">
         <v>143</v>
       </c>
@@ -15928,7 +15910,7 @@
         <f>H29</f>
         <v>67</v>
       </c>
-      <c r="I30" s="358"/>
+      <c r="I30" s="351"/>
       <c r="J30" s="82" t="s">
         <v>142</v>
       </c>
@@ -15976,7 +15958,7 @@
         <f>24</f>
         <v>24</v>
       </c>
-      <c r="I31" s="358"/>
+      <c r="I31" s="351"/>
       <c r="J31" s="35" t="s">
         <v>140</v>
       </c>
@@ -16038,11 +16020,11 @@
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="I33" s="358" t="s">
+      <c r="I33" s="351" t="s">
         <v>141</v>
       </c>
       <c r="J33" s="85" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M33" s="72">
         <f t="shared" ref="M33:V33" si="9">SUM(M28:M31)</f>
@@ -16086,9 +16068,9 @@
       </c>
     </row>
     <row r="34" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="I34" s="358"/>
+      <c r="I34" s="351"/>
       <c r="J34" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K34" s="72">
         <f>K26-K33</f>
@@ -16141,12 +16123,12 @@
     </row>
     <row r="36" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D37" s="72"/>
       <c r="E37" s="72"/>
@@ -16254,7 +16236,7 @@
     </row>
     <row r="42" spans="3:23" x14ac:dyDescent="0.2">
       <c r="O42" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="43" spans="3:23" x14ac:dyDescent="0.2">
@@ -16291,7 +16273,7 @@
     </row>
     <row r="47" spans="3:23" x14ac:dyDescent="0.2">
       <c r="N47" s="316" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O47">
         <v>32</v>
@@ -16299,7 +16281,7 @@
     </row>
     <row r="48" spans="3:23" x14ac:dyDescent="0.2">
       <c r="N48" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O48">
         <v>36.75</v>
@@ -16323,6 +16305,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="K4:N4"/>
     <mergeCell ref="O22:R22"/>
     <mergeCell ref="S22:V22"/>
     <mergeCell ref="I28:I31"/>
@@ -16330,12 +16318,6 @@
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="K23:N23"/>
     <mergeCell ref="K22:N22"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="K4:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16442,22 +16424,22 @@
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
-      <c r="E6" s="366" t="s">
+      <c r="E6" s="364" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="366"/>
-      <c r="G6" s="366"/>
-      <c r="H6" s="366"/>
-      <c r="I6" s="366"/>
-      <c r="J6" s="366"/>
-      <c r="K6" s="366"/>
-      <c r="L6" s="366"/>
-      <c r="M6" s="366"/>
-      <c r="N6" s="366"/>
-      <c r="O6" s="366"/>
-      <c r="P6" s="366"/>
-      <c r="Q6" s="366"/>
-      <c r="R6" s="366"/>
+      <c r="F6" s="364"/>
+      <c r="G6" s="364"/>
+      <c r="H6" s="364"/>
+      <c r="I6" s="364"/>
+      <c r="J6" s="364"/>
+      <c r="K6" s="364"/>
+      <c r="L6" s="364"/>
+      <c r="M6" s="364"/>
+      <c r="N6" s="364"/>
+      <c r="O6" s="364"/>
+      <c r="P6" s="364"/>
+      <c r="Q6" s="364"/>
+      <c r="R6" s="364"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="363" t="s">
@@ -17193,21 +17175,21 @@
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
-      <c r="H27" s="364" t="s">
+      <c r="H27" s="365" t="s">
         <v>95</v>
       </c>
-      <c r="I27" s="364"/>
-      <c r="J27" s="364"/>
-      <c r="K27" s="364"/>
-      <c r="L27" s="364"/>
-      <c r="M27" s="364"/>
-      <c r="N27" s="364"/>
-      <c r="O27" s="364"/>
-      <c r="P27" s="364"/>
-      <c r="Q27" s="364"/>
-      <c r="R27" s="364"/>
-      <c r="S27" s="364"/>
-      <c r="T27" s="364"/>
+      <c r="I27" s="365"/>
+      <c r="J27" s="365"/>
+      <c r="K27" s="365"/>
+      <c r="L27" s="365"/>
+      <c r="M27" s="365"/>
+      <c r="N27" s="365"/>
+      <c r="O27" s="365"/>
+      <c r="P27" s="365"/>
+      <c r="Q27" s="365"/>
+      <c r="R27" s="365"/>
+      <c r="S27" s="365"/>
+      <c r="T27" s="365"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
@@ -17523,21 +17505,21 @@
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="365" t="s">
+      <c r="F37" s="366" t="s">
         <v>99</v>
       </c>
-      <c r="G37" s="365"/>
-      <c r="H37" s="365"/>
-      <c r="I37" s="365"/>
-      <c r="J37" s="365"/>
-      <c r="K37" s="365"/>
-      <c r="L37" s="365"/>
-      <c r="M37" s="365"/>
-      <c r="N37" s="365"/>
-      <c r="O37" s="365"/>
-      <c r="P37" s="365"/>
-      <c r="Q37" s="365"/>
-      <c r="R37" s="365"/>
+      <c r="G37" s="366"/>
+      <c r="H37" s="366"/>
+      <c r="I37" s="366"/>
+      <c r="J37" s="366"/>
+      <c r="K37" s="366"/>
+      <c r="L37" s="366"/>
+      <c r="M37" s="366"/>
+      <c r="N37" s="366"/>
+      <c r="O37" s="366"/>
+      <c r="P37" s="366"/>
+      <c r="Q37" s="366"/>
+      <c r="R37" s="366"/>
     </row>
     <row r="38" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="24" t="s">
@@ -17853,21 +17835,21 @@
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
-      <c r="F48" s="364" t="s">
+      <c r="F48" s="365" t="s">
         <v>101</v>
       </c>
-      <c r="G48" s="364"/>
-      <c r="H48" s="364"/>
-      <c r="I48" s="364"/>
-      <c r="J48" s="364"/>
-      <c r="K48" s="364"/>
-      <c r="L48" s="364"/>
-      <c r="M48" s="364"/>
-      <c r="N48" s="364"/>
-      <c r="O48" s="364"/>
-      <c r="P48" s="364"/>
-      <c r="Q48" s="364"/>
-      <c r="R48" s="364"/>
+      <c r="G48" s="365"/>
+      <c r="H48" s="365"/>
+      <c r="I48" s="365"/>
+      <c r="J48" s="365"/>
+      <c r="K48" s="365"/>
+      <c r="L48" s="365"/>
+      <c r="M48" s="365"/>
+      <c r="N48" s="365"/>
+      <c r="O48" s="365"/>
+      <c r="P48" s="365"/>
+      <c r="Q48" s="365"/>
+      <c r="R48" s="365"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="24" t="s">
@@ -18179,12 +18161,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E6:R6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="H27:T27"/>
     <mergeCell ref="F37:R37"/>
@@ -18193,6 +18169,12 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E6:R6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21867,7 +21849,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C19"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21879,18 +21861,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="97" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B1" s="97" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C1" s="97" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="289" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B2" s="289">
         <v>325</v>
@@ -21902,7 +21884,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="289" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B3" s="289">
         <v>120</v>
@@ -21926,7 +21908,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="289" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B5" s="289">
         <v>82</v>
@@ -21938,7 +21920,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="289" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B6" s="289">
         <v>63</v>
@@ -21950,7 +21932,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="291" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B7">
         <v>22</v>
@@ -21962,7 +21944,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="176" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B8">
         <v>20</v>
@@ -21974,7 +21956,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="176" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B9">
         <v>9</v>
@@ -21999,7 +21981,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="292" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B11" s="289">
         <v>45</v>
@@ -22011,7 +21993,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="291" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B12" s="289">
         <v>16</v>
@@ -22036,7 +22018,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="292" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B14" s="289">
         <v>80</v>
@@ -22048,7 +22030,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="291" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B15" s="289">
         <v>26</v>
@@ -22073,7 +22055,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="292" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B17">
         <v>30</v>
@@ -22085,7 +22067,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="291" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B18">
         <v>20</v>
@@ -22097,7 +22079,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="291" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -22109,7 +22091,7 @@
     </row>
     <row r="20" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="293" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B20" s="294">
         <v>5</v>
@@ -22139,7 +22121,7 @@
   <dimension ref="A1:AX73"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="D49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="8" topLeftCell="C46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
       <selection pane="bottomRight" activeCell="H54" sqref="H54"/>
@@ -22162,14 +22144,14 @@
   <sheetData>
     <row r="1" spans="1:50" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="335" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B1" s="336"/>
       <c r="C1" s="35"/>
       <c r="H1"/>
       <c r="I1" s="240"/>
       <c r="J1" s="343" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="V1" s="327"/>
       <c r="W1" s="327"/>
@@ -22178,11 +22160,11 @@
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A2" s="337" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B2" s="126"/>
       <c r="C2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I2" s="241"/>
       <c r="J2" s="343"/>
@@ -22191,7 +22173,7 @@
       <c r="A3" s="338"/>
       <c r="B3" s="127"/>
       <c r="C3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I3" s="241"/>
       <c r="J3" s="343"/>
@@ -22200,14 +22182,14 @@
       <c r="A4" s="338"/>
       <c r="B4" s="128"/>
       <c r="C4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A5" s="339"/>
       <c r="B5" s="129"/>
       <c r="C5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.2">
@@ -22218,42 +22200,42 @@
       <c r="E7" s="341"/>
       <c r="F7" s="342"/>
       <c r="G7" s="340" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H7" s="341"/>
       <c r="I7" s="341"/>
       <c r="J7" s="342"/>
       <c r="K7" s="340" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L7" s="341"/>
       <c r="M7" s="341"/>
       <c r="N7" s="341"/>
       <c r="O7" s="340" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P7" s="341"/>
       <c r="Q7" s="341"/>
       <c r="R7" s="341"/>
       <c r="S7" s="340" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="T7" s="341"/>
       <c r="U7" s="341"/>
       <c r="V7" s="341"/>
       <c r="W7" s="340" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="X7" s="341"/>
       <c r="Y7" s="341"/>
       <c r="Z7" s="341"/>
       <c r="AA7" s="222" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C8" s="96" t="s">
         <v>5</v>
@@ -22333,7 +22315,7 @@
     </row>
     <row r="9" spans="1:50" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="106" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B9" s="106"/>
       <c r="C9" s="78"/>
@@ -22355,7 +22337,7 @@
     </row>
     <row r="10" spans="1:50" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="86" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D10">
         <v>200.67099999999999</v>
@@ -22501,7 +22483,7 @@
     </row>
     <row r="11" spans="1:50" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="86" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D11">
         <v>186.4</v>
@@ -22635,7 +22617,7 @@
     </row>
     <row r="12" spans="1:50" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="86" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D12">
         <v>1862.4</v>
@@ -22769,7 +22751,7 @@
     </row>
     <row r="13" spans="1:50" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" s="86" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D13">
         <v>62.7</v>
@@ -22903,7 +22885,7 @@
     </row>
     <row r="14" spans="1:50" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="86" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D14">
         <v>1228.1289999999999</v>
@@ -23049,7 +23031,7 @@
     </row>
     <row r="15" spans="1:50" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="86" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D15">
         <v>1574.4</v>
@@ -23064,126 +23046,126 @@
         <v>2063.6999999999998</v>
       </c>
       <c r="H15">
-        <v>1173.4306077717999</v>
+        <v>1819.81390083411</v>
       </c>
       <c r="I15">
-        <v>1079.6360757324401</v>
+        <v>1623.62521731378</v>
       </c>
       <c r="J15">
-        <v>985.97024024303198</v>
+        <v>1487.1097724132001</v>
       </c>
       <c r="K15">
-        <v>977.110110791843</v>
+        <v>1525.56477563047</v>
       </c>
       <c r="L15">
-        <v>980.88679745307797</v>
+        <v>1537.45597233026</v>
       </c>
       <c r="M15">
-        <v>992.38792138408803</v>
+        <v>1532.4524351376299</v>
       </c>
       <c r="N15">
-        <v>1003.91529705647</v>
+        <v>1504.0551108309301</v>
       </c>
       <c r="O15">
-        <v>1015.93629707859</v>
+        <v>1504.76699307077</v>
       </c>
       <c r="P15">
-        <v>1026.63399899111</v>
+        <v>1506.4554877129101</v>
       </c>
       <c r="Q15">
-        <v>1037.40871112896</v>
+        <v>1508.8118867247699</v>
       </c>
       <c r="R15">
-        <v>1048.1867039932399</v>
+        <v>1513.08196729581</v>
       </c>
       <c r="S15">
-        <v>1057.2302228472799</v>
+        <v>1528.86684944985</v>
       </c>
       <c r="T15">
-        <v>1064.79906510773</v>
+        <v>1544.00925390971</v>
       </c>
       <c r="U15">
-        <v>1071.1541372356701</v>
+        <v>1556.1560335270599</v>
       </c>
       <c r="V15">
-        <v>1077.5100716383599</v>
+        <v>1566.4665870005299</v>
       </c>
       <c r="W15">
-        <v>1099.2872247508999</v>
+        <v>1601.9073637173799</v>
       </c>
       <c r="X15">
-        <v>1122.80380324253</v>
+        <v>1631.30402307299</v>
       </c>
       <c r="Y15">
-        <v>1146.7485934026799</v>
+        <v>1655.34640968285</v>
       </c>
       <c r="Z15">
-        <v>1170.6953963911101</v>
+        <v>1673.4583263601301</v>
       </c>
       <c r="AA15">
-        <v>1186.8153618874101</v>
+        <v>1682.7628887994099</v>
       </c>
       <c r="AB15">
-        <v>1201.3770666363801</v>
+        <v>1693.56588941872</v>
       </c>
       <c r="AC15">
-        <v>1214.8813289316699</v>
+        <v>1707.07457155099</v>
       </c>
       <c r="AD15">
-        <v>1228.3862667803</v>
+        <v>1722.68635045423</v>
       </c>
       <c r="AE15">
-        <v>1241.90778399793</v>
+        <v>1735.8137825215699</v>
       </c>
       <c r="AF15">
-        <v>1256.23339217087</v>
+        <v>1749.2248374552801</v>
       </c>
       <c r="AG15">
-        <v>1270.67170668828</v>
+        <v>1761.02815510048</v>
       </c>
       <c r="AH15">
-        <v>1285.11118699391</v>
+        <v>1772.41066492001</v>
       </c>
       <c r="AI15">
-        <v>1311.8387510858199</v>
+        <v>1805.0361022818399</v>
       </c>
       <c r="AJ15">
-        <v>1339.4958500324899</v>
+        <v>1833.15435247449</v>
       </c>
       <c r="AK15">
-        <v>1367.36511251007</v>
+        <v>1857.5703695928801</v>
       </c>
       <c r="AL15">
-        <v>1395.23637040312</v>
+        <v>1877.6331160100301</v>
       </c>
       <c r="AM15">
-        <v>1392.6184883093399</v>
+        <v>1853.42810148629</v>
       </c>
       <c r="AN15">
-        <v>1386.7284093480901</v>
+        <v>1839.9120282056999</v>
       </c>
       <c r="AO15">
-        <v>1379.1260190937501</v>
+        <v>1838.3860538377</v>
       </c>
       <c r="AP15">
-        <v>1371.52099855181</v>
+        <v>1848.20267890064</v>
       </c>
       <c r="AQ15">
-        <v>1397.83936427104</v>
+        <v>1906.4392549448801</v>
       </c>
       <c r="AR15">
-        <v>1428.8762402519401</v>
+        <v>1955.0223742324899</v>
       </c>
       <c r="AS15">
-        <v>1462.6371821476</v>
+        <v>1988.91857610285</v>
       </c>
       <c r="AT15">
-        <v>1496.40104428308</v>
+        <v>2011.1030125773</v>
       </c>
     </row>
     <row r="16" spans="1:50" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="86" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D16">
         <v>74.5</v>
@@ -23329,7 +23311,7 @@
     </row>
     <row r="17" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D17">
         <v>204.37100000000001</v>
@@ -23483,7 +23465,7 @@
     </row>
     <row r="20" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="110" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B20" s="110"/>
       <c r="E20" s="95"/>
@@ -23504,7 +23486,7 @@
     </row>
     <row r="21" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D21" s="102">
         <f>main!L112/1000</f>
@@ -23606,7 +23588,7 @@
     </row>
     <row r="22" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D22" s="102">
         <f t="shared" ref="D22:AA22" si="1">D10</f>
@@ -23708,7 +23690,7 @@
     </row>
     <row r="23" spans="1:47" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B23" s="210" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D23" s="228"/>
       <c r="E23" s="242"/>
@@ -23780,7 +23762,7 @@
     </row>
     <row r="24" spans="1:47" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="99" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D24" s="103"/>
       <c r="E24" s="217"/>
@@ -23922,7 +23904,7 @@
     </row>
     <row r="27" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="110" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B27" s="110"/>
       <c r="D27" s="102"/>
@@ -23949,7 +23931,7 @@
     </row>
     <row r="28" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D28" s="102"/>
       <c r="E28" s="104">
@@ -24048,7 +24030,7 @@
     </row>
     <row r="29" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D29" s="102">
         <f t="shared" ref="D29:AA29" si="23">D11</f>
@@ -24150,7 +24132,7 @@
     </row>
     <row r="30" spans="1:47" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B30" s="210" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D30" s="228"/>
       <c r="E30" s="242"/>
@@ -24225,7 +24207,7 @@
     </row>
     <row r="31" spans="1:47" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="99" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D31" s="103"/>
       <c r="E31" s="217"/>
@@ -24377,7 +24359,7 @@
     </row>
     <row r="34" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="110" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B34" s="110"/>
       <c r="D34" s="102"/>
@@ -24404,7 +24386,7 @@
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D35" s="102"/>
       <c r="E35" s="104">
@@ -24451,7 +24433,7 @@
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D36" s="102">
         <f t="shared" ref="D36:K36" si="46">D12</f>
@@ -24501,7 +24483,7 @@
     </row>
     <row r="37" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="99" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D37" s="103"/>
       <c r="E37" s="217"/>
@@ -24627,7 +24609,7 @@
     </row>
     <row r="40" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" s="110" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B40" s="110"/>
       <c r="D40" s="102"/>
@@ -24654,7 +24636,7 @@
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D41" s="102"/>
       <c r="E41" s="104">
@@ -24701,7 +24683,7 @@
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D42" s="102">
         <f t="shared" ref="D42:K42" si="48">D13</f>
@@ -24753,7 +24735,7 @@
     </row>
     <row r="43" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="99" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D43" s="103"/>
       <c r="E43" s="217"/>
@@ -24879,7 +24861,7 @@
     </row>
     <row r="46" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="105" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B46" s="105"/>
       <c r="D46" s="102"/>
@@ -24906,7 +24888,7 @@
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D47" s="102"/>
       <c r="E47" s="104">
@@ -25005,7 +24987,7 @@
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D48" s="102">
         <f t="shared" ref="D48:AA48" si="51">D14</f>
@@ -25107,7 +25089,7 @@
     </row>
     <row r="49" spans="1:32" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B49" s="210" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D49" s="228"/>
       <c r="E49" s="242"/>
@@ -25188,7 +25170,7 @@
     </row>
     <row r="50" spans="1:32" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="99" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D50" s="103"/>
       <c r="E50" s="217"/>
@@ -25330,7 +25312,7 @@
     </row>
     <row r="53" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A53" s="105" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B53" s="105"/>
       <c r="D53" s="102"/>
@@ -25357,7 +25339,7 @@
     </row>
     <row r="54" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B54" s="86" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D54" s="102">
         <f>main!K94/1000</f>
@@ -25373,93 +25355,93 @@
       </c>
       <c r="G54" s="149">
         <f>main!N94/1000</f>
-        <v>2027.7929999999999</v>
+        <v>2064.462</v>
       </c>
       <c r="H54" s="104">
         <f>main!O94/1000</f>
-        <v>1763.7013980484896</v>
+        <v>3156.8986305484896</v>
       </c>
       <c r="I54" s="104">
         <f>main!P94/1000</f>
-        <v>1750.8488739812499</v>
+        <v>1923.6771272375001</v>
       </c>
       <c r="J54" s="104">
         <f>main!Q94/1000</f>
-        <v>1686.4675074263907</v>
+        <v>1734.9295487832189</v>
       </c>
       <c r="K54" s="263">
         <f>main!R94/1000</f>
-        <v>1683.0445200377862</v>
+        <v>1732.2334920149672</v>
       </c>
       <c r="L54" s="104">
         <f>K54*(1+L56)</f>
-        <v>1689.5497559563257</v>
+        <v>1745.7355926878156</v>
       </c>
       <c r="M54" s="104">
         <f t="shared" ref="M54:AA54" si="75">L54*(1+M56)</f>
-        <v>1709.3601165211912</v>
+        <v>1740.0542248153602</v>
       </c>
       <c r="N54" s="104">
         <f t="shared" si="75"/>
-        <v>1729.2156949678176</v>
+        <v>1707.8099064924315</v>
       </c>
       <c r="O54" s="104">
         <f t="shared" si="75"/>
-        <v>1749.9215273905395</v>
+        <v>1708.6182276321956</v>
       </c>
       <c r="P54" s="104">
         <f t="shared" si="75"/>
-        <v>1768.3480162601245</v>
+        <v>1710.5354631484613</v>
       </c>
       <c r="Q54" s="104">
         <f t="shared" si="75"/>
-        <v>1786.9071530639565</v>
+        <v>1713.2110842391537</v>
       </c>
       <c r="R54" s="104">
         <f t="shared" si="75"/>
-        <v>1805.4719408262408</v>
+        <v>1718.0596339021474</v>
       </c>
       <c r="S54" s="104">
         <f t="shared" si="75"/>
-        <v>1821.0491461801141</v>
+        <v>1735.9828987621643</v>
       </c>
       <c r="T54" s="104">
         <f t="shared" si="75"/>
-        <v>1834.0862628251948</v>
+        <v>1753.1766492826337</v>
       </c>
       <c r="U54" s="104">
         <f t="shared" si="75"/>
-        <v>1845.0326947587528</v>
+        <v>1766.9689567673176</v>
       </c>
       <c r="V54" s="104">
         <f t="shared" si="75"/>
-        <v>1855.9806119361706</v>
+        <v>1778.6762840032752</v>
       </c>
       <c r="W54" s="104">
         <f t="shared" si="75"/>
-        <v>1893.4911420220599</v>
+        <v>1818.9182333407462</v>
       </c>
       <c r="X54" s="104">
         <f t="shared" si="75"/>
-        <v>1933.9977831091137</v>
+        <v>1852.2972669305184</v>
       </c>
       <c r="Y54" s="104">
         <f t="shared" si="75"/>
-        <v>1975.242006679614</v>
+        <v>1879.5966828444446</v>
       </c>
       <c r="Z54" s="104">
         <f t="shared" si="75"/>
-        <v>2016.4896972898773</v>
+        <v>1900.1622262904798</v>
       </c>
       <c r="AA54" s="104">
         <f t="shared" si="75"/>
-        <v>2044.2558817680622</v>
+        <v>1910.7272805859973</v>
       </c>
       <c r="AB54" s="95"/>
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D55" s="102">
         <f t="shared" ref="D55:AA55" si="76">D15</f>
@@ -25479,89 +25461,89 @@
       </c>
       <c r="H55" s="104">
         <f t="shared" si="76"/>
-        <v>1173.4306077717999</v>
+        <v>1819.81390083411</v>
       </c>
       <c r="I55" s="104">
         <f t="shared" si="76"/>
-        <v>1079.6360757324401</v>
+        <v>1623.62521731378</v>
       </c>
       <c r="J55" s="104">
         <f t="shared" si="76"/>
-        <v>985.97024024303198</v>
+        <v>1487.1097724132001</v>
       </c>
       <c r="K55" s="263">
         <f t="shared" si="76"/>
-        <v>977.110110791843</v>
+        <v>1525.56477563047</v>
       </c>
       <c r="L55" s="104">
         <f t="shared" si="76"/>
-        <v>980.88679745307797</v>
+        <v>1537.45597233026</v>
       </c>
       <c r="M55" s="104">
         <f t="shared" si="76"/>
-        <v>992.38792138408803</v>
+        <v>1532.4524351376299</v>
       </c>
       <c r="N55" s="104">
         <f t="shared" si="76"/>
-        <v>1003.91529705647</v>
+        <v>1504.0551108309301</v>
       </c>
       <c r="O55" s="149">
         <f t="shared" si="76"/>
-        <v>1015.93629707859</v>
+        <v>1504.76699307077</v>
       </c>
       <c r="P55" s="104">
         <f t="shared" si="76"/>
-        <v>1026.63399899111</v>
+        <v>1506.4554877129101</v>
       </c>
       <c r="Q55" s="104">
         <f t="shared" si="76"/>
-        <v>1037.40871112896</v>
+        <v>1508.8118867247699</v>
       </c>
       <c r="R55" s="104">
         <f t="shared" si="76"/>
-        <v>1048.1867039932399</v>
+        <v>1513.08196729581</v>
       </c>
       <c r="S55" s="149">
         <f t="shared" si="76"/>
-        <v>1057.2302228472799</v>
+        <v>1528.86684944985</v>
       </c>
       <c r="T55" s="104">
         <f t="shared" si="76"/>
-        <v>1064.79906510773</v>
+        <v>1544.00925390971</v>
       </c>
       <c r="U55" s="104">
         <f t="shared" si="76"/>
-        <v>1071.1541372356701</v>
+        <v>1556.1560335270599</v>
       </c>
       <c r="V55" s="104">
         <f t="shared" si="76"/>
-        <v>1077.5100716383599</v>
+        <v>1566.4665870005299</v>
       </c>
       <c r="W55" s="149">
         <f t="shared" si="76"/>
-        <v>1099.2872247508999</v>
+        <v>1601.9073637173799</v>
       </c>
       <c r="X55" s="104">
         <f t="shared" si="76"/>
-        <v>1122.80380324253</v>
+        <v>1631.30402307299</v>
       </c>
       <c r="Y55" s="104">
         <f t="shared" si="76"/>
-        <v>1146.7485934026799</v>
+        <v>1655.34640968285</v>
       </c>
       <c r="Z55" s="104">
         <f t="shared" si="76"/>
-        <v>1170.6953963911101</v>
+        <v>1673.4583263601301</v>
       </c>
       <c r="AA55" s="149">
         <f t="shared" si="76"/>
-        <v>1186.8153618874101</v>
+        <v>1682.7628887994099</v>
       </c>
       <c r="AB55" s="95"/>
     </row>
     <row r="56" spans="1:32" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B56" s="210" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D56" s="228"/>
       <c r="E56" s="242"/>
@@ -25573,73 +25555,73 @@
       <c r="K56" s="246"/>
       <c r="L56" s="230">
         <f t="shared" ref="L56" si="77">(L55/K55)-1</f>
-        <v>3.8651597394425696E-3</v>
+        <v>7.7946193368785277E-3</v>
       </c>
       <c r="M56" s="230">
         <f t="shared" ref="M56" si="78">(M55/L55)-1</f>
-        <v>1.1725230639125117E-2</v>
+        <v>-3.2544263267887397E-3</v>
       </c>
       <c r="N56" s="230">
         <f t="shared" ref="N56" si="79">(N55/M55)-1</f>
-        <v>1.1615796024909919E-2</v>
+        <v>-1.8530639943907579E-2</v>
       </c>
       <c r="O56" s="246">
         <f t="shared" ref="O56" si="80">(O55/N55)-1</f>
-        <v>1.1974117793967398E-2</v>
+        <v>4.7330861396877033E-4</v>
       </c>
       <c r="P56" s="230">
         <f t="shared" ref="P56" si="81">(P55/O55)-1</f>
-        <v>1.0529894387357075E-2</v>
+        <v>1.1220970754377557E-3</v>
       </c>
       <c r="Q56" s="230">
         <f t="shared" ref="Q56" si="82">(Q55/P55)-1</f>
-        <v>1.0495183432887023E-2</v>
+        <v>1.5642008881637803E-3</v>
       </c>
       <c r="R56" s="230">
         <f t="shared" ref="R56" si="83">(R55/Q55)-1</f>
-        <v>1.0389341007702502E-2</v>
+        <v>2.8300947312320801E-3</v>
       </c>
       <c r="S56" s="246">
         <f t="shared" ref="S56" si="84">(S55/R55)-1</f>
-        <v>8.6277748225456197E-3</v>
+        <v>1.0432271678084026E-2</v>
       </c>
       <c r="T56" s="230">
         <f t="shared" ref="T56" si="85">(T55/S55)-1</f>
-        <v>7.1591239986179556E-3</v>
+        <v>9.9043317377891515E-3</v>
       </c>
       <c r="U56" s="230">
         <f t="shared" ref="U56" si="86">(U55/T55)-1</f>
-        <v>5.9683299283297409E-3</v>
+        <v>7.8670380935814688E-3</v>
       </c>
       <c r="V56" s="230">
         <f t="shared" ref="V56" si="87">(V55/U55)-1</f>
-        <v>5.9337252984827948E-3</v>
+        <v>6.6256553014809594E-3</v>
       </c>
       <c r="W56" s="246">
         <f t="shared" ref="W56" si="88">(W55/V55)-1</f>
-        <v>2.0210626040300106E-2</v>
+        <v>2.2624661777632893E-2</v>
       </c>
       <c r="X56" s="230">
         <f t="shared" ref="X56" si="89">(X55/W55)-1</f>
-        <v>2.1392569623429392E-2</v>
+        <v>1.8351035784861081E-2</v>
       </c>
       <c r="Y56" s="230">
         <f t="shared" ref="Y56" si="90">(Y55/X55)-1</f>
-        <v>2.1325889786799834E-2</v>
+        <v>1.4738139715103404E-2</v>
       </c>
       <c r="Z56" s="230">
         <f t="shared" ref="Z56" si="91">(Z55/Y55)-1</f>
-        <v>2.0882347819040525E-2</v>
+        <v>1.0941466131400457E-2</v>
       </c>
       <c r="AA56" s="246">
         <f t="shared" ref="AA56" si="92">(AA55/Z55)-1</f>
-        <v>1.3769564265813994E-2</v>
+        <v>5.5600801601780603E-3</v>
       </c>
       <c r="AB56" s="243"/>
     </row>
     <row r="57" spans="1:32" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="99" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D57" s="103"/>
       <c r="E57" s="217"/>
@@ -25649,87 +25631,87 @@
       </c>
       <c r="G57" s="150">
         <f t="shared" ref="G57" si="94">G54-G55</f>
-        <v>-35.906999999999925</v>
+        <v>0.76200000000017099</v>
       </c>
       <c r="H57" s="217">
         <f t="shared" ref="H57" si="95">H54-H55</f>
-        <v>590.2707902766897</v>
+        <v>1337.0847297143796</v>
       </c>
       <c r="I57" s="217">
         <f t="shared" ref="I57" si="96">I54-I55</f>
-        <v>671.2127982488098</v>
+        <v>300.05190992372013</v>
       </c>
       <c r="J57" s="217">
         <f t="shared" ref="J57" si="97">J54-J55</f>
-        <v>700.49726718335876</v>
+        <v>247.81977637001887</v>
       </c>
       <c r="K57" s="264">
         <f t="shared" ref="K57" si="98">K54-K55</f>
-        <v>705.93440924594324</v>
+        <v>206.6687163844972</v>
       </c>
       <c r="L57" s="217">
         <f t="shared" ref="L57:AA57" si="99">L54-L55</f>
-        <v>708.66295850324775</v>
+        <v>208.27962035755559</v>
       </c>
       <c r="M57" s="217">
         <f t="shared" si="99"/>
-        <v>716.9721951371032</v>
+        <v>207.60178967773027</v>
       </c>
       <c r="N57" s="217">
         <f t="shared" si="99"/>
-        <v>725.30039791134766</v>
+        <v>203.75479566150148</v>
       </c>
       <c r="O57" s="150">
         <f t="shared" si="99"/>
-        <v>733.98523031194952</v>
+        <v>203.8512345614256</v>
       </c>
       <c r="P57" s="217">
         <f t="shared" si="99"/>
-        <v>741.71401726901445</v>
+        <v>204.07997543555121</v>
       </c>
       <c r="Q57" s="217">
         <f t="shared" si="99"/>
-        <v>749.49844193499644</v>
+        <v>204.39919751438379</v>
       </c>
       <c r="R57" s="217">
         <f t="shared" si="99"/>
-        <v>757.28523683300091</v>
+        <v>204.97766660633738</v>
       </c>
       <c r="S57" s="150">
         <f t="shared" si="99"/>
-        <v>763.81892333283417</v>
+        <v>207.11604931231432</v>
       </c>
       <c r="T57" s="217">
         <f t="shared" si="99"/>
-        <v>769.28719771746478</v>
+        <v>209.16739537292369</v>
       </c>
       <c r="U57" s="217">
         <f t="shared" si="99"/>
-        <v>773.87855752308269</v>
+        <v>210.81292324025776</v>
       </c>
       <c r="V57" s="217">
         <f t="shared" si="99"/>
-        <v>778.47054029781066</v>
+        <v>212.20969700274532</v>
       </c>
       <c r="W57" s="150">
         <f t="shared" si="99"/>
-        <v>794.20391727115998</v>
+        <v>217.01086962336626</v>
       </c>
       <c r="X57" s="217">
         <f t="shared" si="99"/>
-        <v>811.19397986658373</v>
+        <v>220.99324385752834</v>
       </c>
       <c r="Y57" s="217">
         <f t="shared" si="99"/>
-        <v>828.49341327693401</v>
+        <v>224.25027316159458</v>
       </c>
       <c r="Z57" s="217">
         <f t="shared" si="99"/>
-        <v>845.79430089876723</v>
+        <v>226.70389993034973</v>
       </c>
       <c r="AA57" s="150">
         <f t="shared" si="99"/>
-        <v>857.44051988065212</v>
+        <v>227.96439178658738</v>
       </c>
       <c r="AB57" s="244"/>
     </row>
@@ -25791,7 +25773,7 @@
     </row>
     <row r="60" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A60" s="105" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B60" s="105"/>
       <c r="D60" s="102"/>
@@ -25818,7 +25800,7 @@
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D61" s="100"/>
       <c r="E61" s="104">
@@ -25917,7 +25899,7 @@
     </row>
     <row r="62" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D62" s="102">
         <f t="shared" ref="D62:AA62" si="101">D16</f>
@@ -26019,7 +26001,7 @@
     </row>
     <row r="63" spans="1:32" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B63" s="210" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D63" s="228"/>
       <c r="E63" s="242"/>
@@ -26094,7 +26076,7 @@
     </row>
     <row r="64" spans="1:32" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="99" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D64" s="103"/>
       <c r="E64" s="217"/>
@@ -26240,7 +26222,7 @@
     </row>
     <row r="67" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A67" s="105" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B67" s="105"/>
       <c r="D67" s="102"/>
@@ -26267,7 +26249,7 @@
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D68" s="100"/>
       <c r="E68" s="218">
@@ -26363,7 +26345,7 @@
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D69" s="102">
         <f t="shared" ref="D69:O69" si="105">D17</f>
@@ -26465,7 +26447,7 @@
     </row>
     <row r="70" spans="1:28" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B70" s="210" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D70" s="228"/>
       <c r="E70" s="242"/>
@@ -26528,7 +26510,7 @@
     </row>
     <row r="71" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="99" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D71" s="103"/>
       <c r="E71" s="217"/>
@@ -26678,9 +26660,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304CD302-ECA7-4CE9-B89D-A357A53FDBE8}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I1" sqref="I1"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -26691,52 +26673,52 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H1" t="s">
         <v>255</v>
       </c>
-      <c r="B1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E1" t="s">
-        <v>251</v>
-      </c>
-      <c r="F1" t="s">
-        <v>252</v>
-      </c>
-      <c r="G1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H1" t="s">
-        <v>254</v>
-      </c>
       <c r="I1" t="s">
+        <v>383</v>
+      </c>
+      <c r="J1" t="s">
+        <v>378</v>
+      </c>
+      <c r="K1" t="s">
         <v>381</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>379</v>
+      </c>
+      <c r="M1" t="s">
         <v>380</v>
       </c>
-      <c r="K1" t="s">
-        <v>377</v>
-      </c>
-      <c r="L1" t="s">
-        <v>378</v>
-      </c>
-      <c r="M1" t="s">
-        <v>379</v>
-      </c>
       <c r="N1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -26875,7 +26857,7 @@
         <v>-5.9999999998581188E-3</v>
       </c>
       <c r="G4">
-        <v>-35.906999999999925</v>
+        <v>0.76200000000017099</v>
       </c>
       <c r="H4">
         <v>0.63599999999996726</v>
@@ -26893,7 +26875,7 @@
       </c>
       <c r="L4" s="102">
         <f>main!N$43/1000</f>
-        <v>301.60000000000002</v>
+        <v>288.7</v>
       </c>
       <c r="M4" s="102">
         <f>main!N$47/1000</f>
@@ -26929,7 +26911,7 @@
         <v>25.381437624588216</v>
       </c>
       <c r="G5">
-        <v>590.2707902766897</v>
+        <v>1337.0847297143796</v>
       </c>
       <c r="H5">
         <v>181.40020106674513</v>
@@ -26981,7 +26963,7 @@
         <v>60.824709046836006</v>
       </c>
       <c r="G6">
-        <v>671.2127982488098</v>
+        <v>300.05190992372013</v>
       </c>
       <c r="H6">
         <v>178.52885638089663</v>
@@ -27032,7 +27014,7 @@
         <v>91.483305944011818</v>
       </c>
       <c r="G7">
-        <v>700.49726718335876</v>
+        <v>247.81977637001887</v>
       </c>
       <c r="H7">
         <v>-474.40846011939709</v>
@@ -27083,7 +27065,7 @@
         <v>93.444253570889032</v>
       </c>
       <c r="G8">
-        <v>705.93440924594324</v>
+        <v>206.6687163844972</v>
       </c>
       <c r="H8">
         <v>-498.7387987375219</v>
@@ -27134,7 +27116,7 @@
         <v>95.405201197766473</v>
       </c>
       <c r="G9">
-        <v>708.66295850324775</v>
+        <v>208.27962035755559</v>
       </c>
       <c r="H9">
         <v>-547.1903606870228</v>
@@ -27184,7 +27166,7 @@
         <v>97.366148824643687</v>
       </c>
       <c r="G10">
-        <v>716.9721951371032</v>
+        <v>207.60178967773027</v>
       </c>
       <c r="H10">
         <v>-549.83002927139501</v>
@@ -27234,7 +27216,7 @@
         <v>99.327096451521129</v>
       </c>
       <c r="G11">
-        <v>725.30039791134766</v>
+        <v>203.75479566150148</v>
       </c>
       <c r="H11">
         <v>-552.4284100259805</v>
@@ -27284,7 +27266,7 @@
         <v>100.1353376752661</v>
       </c>
       <c r="G12">
-        <v>733.98523031194952</v>
+        <v>203.8512345614256</v>
       </c>
       <c r="H12">
         <v>-555.01027564865115</v>
@@ -27334,7 +27316,7 @@
         <v>100.94357889901084</v>
       </c>
       <c r="G13">
-        <v>741.71401726901445</v>
+        <v>204.07997543555121</v>
       </c>
       <c r="H13">
         <v>-557.58663622735014</v>
@@ -27381,7 +27363,7 @@
         <v>101.75182012275604</v>
       </c>
       <c r="G14">
-        <v>749.49844193499644</v>
+        <v>204.39919751438379</v>
       </c>
       <c r="H14">
         <v>-560.17125437200662</v>
@@ -27422,7 +27404,7 @@
         <v>102.56006134650079</v>
       </c>
       <c r="G15">
-        <v>757.28523683300091</v>
+        <v>204.97766660633738</v>
       </c>
       <c r="H15">
         <v>-562.78064521453507</v>
@@ -27463,7 +27445,7 @@
         <v>103.25397008032428</v>
       </c>
       <c r="G16">
-        <v>763.81892333283417</v>
+        <v>207.11604931231432</v>
       </c>
       <c r="H16">
         <v>-565.41480875493562</v>
@@ -27504,7 +27486,7 @@
         <v>103.94787881414754</v>
       </c>
       <c r="G17">
-        <v>769.28719771746478</v>
+        <v>209.16739537292369</v>
       </c>
       <c r="H17">
         <v>-568.06548742725101</v>
@@ -27545,7 +27527,7 @@
         <v>104.64178754797103</v>
       </c>
       <c r="G18">
-        <v>773.87855752308269</v>
+        <v>210.81292324025776</v>
       </c>
       <c r="H18">
         <v>-570.71066105559476</v>
@@ -27586,7 +27568,7 @@
         <v>105.3356962817943</v>
       </c>
       <c r="G19">
-        <v>778.47054029781066</v>
+        <v>212.20969700274532</v>
       </c>
       <c r="H19">
         <v>-573.36409224989586</v>
@@ -27627,7 +27609,7 @@
         <v>107.91303693773443</v>
       </c>
       <c r="G20">
-        <v>794.20391727115998</v>
+        <v>217.01086962336626</v>
       </c>
       <c r="H20">
         <v>-576.02302848816862</v>
@@ -27668,7 +27650,7 @@
         <v>110.49037759367457</v>
       </c>
       <c r="G21">
-        <v>811.19397986658373</v>
+        <v>220.99324385752834</v>
       </c>
       <c r="H21">
         <v>-578.67921220445555</v>
@@ -27709,7 +27691,7 @@
         <v>113.0677182496147</v>
       </c>
       <c r="G22">
-        <v>828.49341327693401</v>
+        <v>224.25027316159458</v>
       </c>
       <c r="H22">
         <v>-581.30236565691303</v>
@@ -27750,7 +27732,7 @@
         <v>115.64505890555483</v>
       </c>
       <c r="G23">
-        <v>845.79430089876723</v>
+        <v>226.70389993034973</v>
       </c>
       <c r="H23">
         <v>-583.90625145546994</v>
@@ -27791,7 +27773,7 @@
         <v>117.57287113278448</v>
       </c>
       <c r="G24">
-        <v>857.44051988065212</v>
+        <v>227.96439178658738</v>
       </c>
       <c r="H24">
         <v>-586.4908696001263</v>
@@ -27857,7 +27839,7 @@
       <c r="R1" s="327"/>
       <c r="S1" s="327"/>
       <c r="T1" s="327" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="U1" s="327"/>
       <c r="V1" s="327"/>
@@ -27967,31 +27949,31 @@
       </c>
       <c r="M3" s="255">
         <f>main!O34</f>
-        <v>3270456.7169724014</v>
+        <v>3319653.9494724013</v>
       </c>
       <c r="N3" s="255">
         <f>main!P34</f>
-        <v>2708796.7165770018</v>
+        <v>2757624.969833252</v>
       </c>
       <c r="O3" s="255">
         <f>main!Q34</f>
-        <v>2611509.6718853824</v>
+        <v>2659971.7132422109</v>
       </c>
       <c r="P3" s="255">
         <f>main!R34</f>
-        <v>2678465.9441347551</v>
+        <v>2727654.9161119359</v>
       </c>
       <c r="Q3" s="255">
         <f>main!S34</f>
-        <v>2735176.6542439447</v>
+        <v>2785103.4608007832</v>
       </c>
       <c r="R3" s="255">
         <f>main!T34</f>
-        <v>2793300.2519227522</v>
+        <v>2843975.9605779434</v>
       </c>
       <c r="S3" s="255">
         <f>main!U34</f>
-        <v>2852876.3150512893</v>
+        <v>2904312.1593363085</v>
       </c>
       <c r="T3" s="255">
         <f>main!V34</f>
@@ -28004,86 +27986,86 @@
     </row>
     <row r="4" spans="1:36" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D4" s="197">
-        <f>main!F35</f>
+        <f>main!F36</f>
         <v>753311</v>
       </c>
       <c r="E4" s="197">
-        <f>main!G35</f>
+        <f>main!G36</f>
         <v>767353</v>
       </c>
       <c r="F4" s="197">
-        <f>main!H35</f>
+        <f>main!H36</f>
         <v>779707</v>
       </c>
       <c r="G4" s="197">
-        <f>main!I35</f>
+        <f>main!I36</f>
         <v>789893</v>
       </c>
       <c r="H4" s="197">
-        <f>main!J35</f>
+        <f>main!J36</f>
         <v>797912</v>
       </c>
       <c r="I4" s="197">
-        <f>main!K35</f>
+        <f>main!K36</f>
         <v>804655</v>
       </c>
       <c r="J4" s="197">
-        <f>main!L35</f>
+        <f>main!L36</f>
         <v>824058</v>
       </c>
       <c r="K4" s="197">
-        <f>main!M35</f>
+        <f>main!M36</f>
         <v>842733</v>
       </c>
       <c r="L4" s="213">
-        <f>main!N35</f>
+        <f>main!N36</f>
         <v>860594</v>
       </c>
       <c r="M4" s="213">
-        <f>main!O35</f>
+        <f>main!O36</f>
         <v>883132.91447240114</v>
       </c>
       <c r="N4" s="213">
-        <f>main!P35</f>
+        <f>main!P36</f>
         <v>905947.84259575198</v>
       </c>
       <c r="O4" s="213">
-        <f>main!Q35</f>
+        <f>main!Q36</f>
         <v>929042.16445899184</v>
       </c>
       <c r="P4" s="213">
-        <f>main!R35</f>
+        <f>main!R36</f>
         <v>971421.42409696849</v>
       </c>
       <c r="Q4" s="213">
-        <f>main!S35</f>
+        <f>main!S36</f>
         <v>1003186.4664055918</v>
       </c>
       <c r="R4" s="213">
-        <f>main!T35</f>
+        <f>main!T36</f>
         <v>1035990.2112668242</v>
       </c>
       <c r="S4" s="213">
-        <f>main!U35</f>
+        <f>main!U36</f>
         <v>1069866.6237855225</v>
       </c>
       <c r="T4" s="213">
-        <f>main!V35</f>
+        <f>main!V36</f>
         <v>1080647.7677858607</v>
       </c>
       <c r="U4" s="213">
-        <f>main!W35</f>
+        <f>main!W36</f>
         <v>1091537.5543621723</v>
       </c>
       <c r="V4" s="213">
-        <f>main!X35</f>
+        <f>main!X36</f>
         <v>1102537.0783156503</v>
       </c>
       <c r="W4" s="213">
-        <f>main!Y35</f>
+        <f>main!Y36</f>
         <v>1113647.4454798999</v>
       </c>
       <c r="AJ4" s="233"/>
@@ -28167,7 +28149,7 @@
     </row>
     <row r="6" spans="1:36" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D6" s="197">
         <f>main!F100</f>
@@ -28272,13 +28254,13 @@
   <sheetData>
     <row r="1" spans="1:27" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="335" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B1" s="336"/>
       <c r="C1" s="35"/>
       <c r="I1" s="240"/>
       <c r="J1" s="343" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="V1" s="327"/>
       <c r="W1" s="327"/>
@@ -28287,11 +28269,11 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="337" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B2" s="126"/>
       <c r="C2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H2" s="95"/>
       <c r="I2" s="241"/>
@@ -28301,7 +28283,7 @@
       <c r="A3" s="338"/>
       <c r="B3" s="127"/>
       <c r="C3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H3" s="95"/>
       <c r="I3" s="241"/>
@@ -28311,7 +28293,7 @@
       <c r="A4" s="338"/>
       <c r="B4" s="128"/>
       <c r="C4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H4" s="95"/>
       <c r="I4" s="95"/>
@@ -28321,7 +28303,7 @@
       <c r="A5" s="339"/>
       <c r="B5" s="129"/>
       <c r="C5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H5" s="95"/>
       <c r="I5" s="95"/>
@@ -28340,42 +28322,42 @@
       <c r="E7" s="341"/>
       <c r="F7" s="342"/>
       <c r="G7" s="340" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H7" s="341"/>
       <c r="I7" s="341"/>
       <c r="J7" s="342"/>
       <c r="K7" s="340" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L7" s="341"/>
       <c r="M7" s="341"/>
       <c r="N7" s="341"/>
       <c r="O7" s="340" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P7" s="341"/>
       <c r="Q7" s="341"/>
       <c r="R7" s="341"/>
       <c r="S7" s="340" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="T7" s="341"/>
       <c r="U7" s="341"/>
       <c r="V7" s="341"/>
       <c r="W7" s="340" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="X7" s="341"/>
       <c r="Y7" s="341"/>
       <c r="Z7" s="341"/>
       <c r="AA7" s="222" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:27" s="257" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="257" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C8" s="96" t="s">
         <v>5</v>
@@ -28455,7 +28437,7 @@
     </row>
     <row r="9" spans="1:27" s="257" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="106" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B9" s="106"/>
       <c r="C9" s="78"/>
@@ -28477,7 +28459,7 @@
     </row>
     <row r="10" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="86" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D10" s="265">
         <v>624.1</v>
@@ -28554,7 +28536,7 @@
     </row>
     <row r="11" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="86" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D11" s="265">
         <v>143</v>
@@ -28631,7 +28613,7 @@
     </row>
     <row r="12" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="86" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D12" s="265">
         <v>1862.4</v>
@@ -28708,7 +28690,7 @@
     </row>
     <row r="13" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" s="86" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D13" s="265">
         <v>62.7</v>
@@ -28785,7 +28767,7 @@
     </row>
     <row r="14" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="86" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D14" s="265">
         <v>0.6</v>
@@ -28862,7 +28844,7 @@
     </row>
     <row r="15" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="86" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D15" s="265">
         <v>804.7</v>
@@ -28939,7 +28921,7 @@
     </row>
     <row r="16" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="86" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D16" s="265">
         <v>1617.8</v>
@@ -29016,7 +28998,7 @@
     </row>
     <row r="17" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="B17" s="86" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D17" s="265">
         <v>3376.8</v>
@@ -29093,7 +29075,7 @@
     </row>
     <row r="18" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="B18" s="86" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D18" s="265">
         <v>180.5</v>
@@ -29170,7 +29152,7 @@
     </row>
     <row r="19" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="B19" s="86" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D19" s="265">
         <v>74.5</v>
@@ -29247,7 +29229,7 @@
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D20" s="265">
         <v>627.79999999999995</v>
@@ -29349,7 +29331,7 @@
     </row>
     <row r="23" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="110" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B23" s="110"/>
       <c r="E23" s="95"/>
@@ -29373,7 +29355,7 @@
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D24" s="102">
         <f>main_nipas!I6/1000</f>
@@ -29475,7 +29457,7 @@
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D25" s="102">
         <f>D10</f>
@@ -29577,7 +29559,7 @@
     </row>
     <row r="26" spans="1:28" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B26" s="210" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D26" s="228"/>
       <c r="E26" s="242"/>
@@ -29649,7 +29631,7 @@
     </row>
     <row r="27" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="99" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D27" s="103"/>
       <c r="E27" s="217"/>
@@ -29791,7 +29773,7 @@
     </row>
     <row r="30" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="110" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B30" s="110"/>
       <c r="D30" s="102"/>
@@ -29818,7 +29800,7 @@
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D31" s="102"/>
       <c r="E31" s="104">
@@ -29917,7 +29899,7 @@
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D32" s="102">
         <f>D11</f>
@@ -30019,7 +30001,7 @@
     </row>
     <row r="33" spans="1:28" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B33" s="210" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D33" s="228"/>
       <c r="E33" s="242"/>
@@ -30094,7 +30076,7 @@
     </row>
     <row r="34" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="99" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D34" s="103"/>
       <c r="E34" s="217"/>
@@ -30246,7 +30228,7 @@
     </row>
     <row r="37" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A37" s="105" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B37" s="105"/>
       <c r="D37" s="102"/>
@@ -30273,7 +30255,7 @@
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D38" s="102"/>
       <c r="E38" s="104">
@@ -30372,7 +30354,7 @@
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D39" s="102">
         <f>D15</f>
@@ -30474,7 +30456,7 @@
     </row>
     <row r="40" spans="1:28" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B40" s="210" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D40" s="228"/>
       <c r="E40" s="242"/>
@@ -30555,7 +30537,7 @@
     </row>
     <row r="41" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="99" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D41" s="103"/>
       <c r="E41" s="217"/>
@@ -30697,7 +30679,7 @@
     </row>
     <row r="44" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="105" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B44" s="105"/>
       <c r="D44" s="102"/>
@@ -30724,7 +30706,7 @@
     </row>
     <row r="45" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="B45" s="86" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D45" s="102">
         <f>main_nipas!I3/1000</f>
@@ -30744,89 +30726,89 @@
       </c>
       <c r="H45" s="102">
         <f>main_nipas!M3/1000</f>
-        <v>3270.4567169724014</v>
+        <v>3319.6539494724011</v>
       </c>
       <c r="I45" s="102">
         <f>main_nipas!N3/1000</f>
-        <v>2708.7967165770019</v>
+        <v>2757.6249698332522</v>
       </c>
       <c r="J45" s="102">
         <f>main_nipas!O3/1000</f>
-        <v>2611.5096718853824</v>
+        <v>2659.9717132422111</v>
       </c>
       <c r="K45" s="263">
         <f>main_nipas!P3/1000</f>
-        <v>2678.4659441347549</v>
+        <v>2727.654916111936</v>
       </c>
       <c r="L45" s="104">
         <f>K45*(1+L47)</f>
-        <v>2705.5862740878774</v>
+        <v>2755.2733002415539</v>
       </c>
       <c r="M45" s="104">
         <f t="shared" ref="M45:AA45" si="12">L45*(1+M47)</f>
-        <v>2704.7609300180629</v>
+        <v>2754.4327990530123</v>
       </c>
       <c r="N45" s="104">
         <f t="shared" si="12"/>
-        <v>2665.2397915655642</v>
+        <v>2714.1858704607871</v>
       </c>
       <c r="O45" s="104">
         <f t="shared" si="12"/>
-        <v>2668.2319318700488</v>
+        <v>2717.2329602433156</v>
       </c>
       <c r="P45" s="104">
         <f t="shared" si="12"/>
-        <v>2672.8394922228958</v>
+        <v>2721.9251366270573</v>
       </c>
       <c r="Q45" s="104">
         <f t="shared" si="12"/>
-        <v>2678.5518369371657</v>
+        <v>2727.7423863018289</v>
       </c>
       <c r="R45" s="104">
         <f t="shared" si="12"/>
-        <v>2687.4296130442599</v>
+        <v>2736.783199270044</v>
       </c>
       <c r="S45" s="104">
         <f t="shared" si="12"/>
-        <v>2714.5941259926144</v>
+        <v>2764.4465777981964</v>
       </c>
       <c r="T45" s="104">
         <f t="shared" si="12"/>
-        <v>2740.6959129860525</v>
+        <v>2791.0277138278939</v>
       </c>
       <c r="U45" s="104">
         <f t="shared" si="12"/>
-        <v>2761.8426201376674</v>
+        <v>2812.5627719263512</v>
       </c>
       <c r="V45" s="104">
         <f t="shared" si="12"/>
-        <v>2779.9520153329941</v>
+        <v>2831.004739030885</v>
       </c>
       <c r="W45" s="104">
         <f t="shared" si="12"/>
-        <v>2844.112631221165</v>
+        <v>2896.3436393560387</v>
       </c>
       <c r="X45" s="104">
         <f t="shared" si="12"/>
-        <v>2898.2756387060926</v>
+        <v>2951.5013291378273</v>
       </c>
       <c r="Y45" s="104">
         <f t="shared" si="12"/>
-        <v>2943.5821136326804</v>
+        <v>2997.6398396295594</v>
       </c>
       <c r="Z45" s="104">
         <f t="shared" si="12"/>
-        <v>2979.0789650047236</v>
+        <v>3033.7885766943218</v>
       </c>
       <c r="AA45" s="104">
         <f t="shared" si="12"/>
-        <v>2998.2027061270114</v>
+        <v>3053.2635177891993</v>
       </c>
       <c r="AB45" s="95"/>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D46" s="102">
         <f>D16</f>
@@ -30928,7 +30910,7 @@
     </row>
     <row r="47" spans="1:28" s="170" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B47" s="210" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D47" s="228"/>
       <c r="E47" s="242"/>
@@ -31006,7 +30988,7 @@
     </row>
     <row r="48" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="99" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D48" s="103"/>
       <c r="E48" s="217"/>
@@ -31020,83 +31002,83 @@
       </c>
       <c r="H48" s="217">
         <f t="shared" si="30"/>
-        <v>1201.8936191406992</v>
+        <v>1251.0908516406989</v>
       </c>
       <c r="I48" s="217">
         <f t="shared" si="30"/>
-        <v>854.05661636033483</v>
+        <v>902.88486961658509</v>
       </c>
       <c r="J48" s="217">
         <f t="shared" si="30"/>
-        <v>906.03001879956446</v>
+        <v>954.49206015639311</v>
       </c>
       <c r="K48" s="264">
         <f t="shared" si="30"/>
-        <v>926.50683572140088</v>
+        <v>975.69580769858203</v>
       </c>
       <c r="L48" s="217">
         <f t="shared" si="30"/>
-        <v>935.88801570004148</v>
+        <v>985.57504185371795</v>
       </c>
       <c r="M48" s="217">
         <f t="shared" si="30"/>
-        <v>935.60252133929384</v>
+        <v>985.27439037424324</v>
       </c>
       <c r="N48" s="217">
         <f t="shared" si="30"/>
-        <v>921.93178379942924</v>
+        <v>970.87786269465209</v>
       </c>
       <c r="O48" s="150">
         <f t="shared" si="30"/>
-        <v>922.96679357866992</v>
+        <v>971.96782195193668</v>
       </c>
       <c r="P48" s="217">
         <f t="shared" si="30"/>
-        <v>924.56059251132388</v>
+        <v>973.64623691548536</v>
       </c>
       <c r="Q48" s="217">
         <f t="shared" si="30"/>
-        <v>926.53654685838478</v>
+        <v>975.72709622304797</v>
       </c>
       <c r="R48" s="217">
         <f t="shared" si="30"/>
-        <v>929.6074540197169</v>
+        <v>978.96104024550095</v>
       </c>
       <c r="S48" s="150">
         <f t="shared" si="30"/>
-        <v>939.00391731648051</v>
+        <v>988.85636912206246</v>
       </c>
       <c r="T48" s="217">
         <f t="shared" si="30"/>
-        <v>948.03277360151947</v>
+        <v>998.36457444336088</v>
       </c>
       <c r="U48" s="217">
         <f t="shared" si="30"/>
-        <v>955.34762065860946</v>
+        <v>1006.0677724472932</v>
       </c>
       <c r="V48" s="217">
         <f t="shared" si="30"/>
-        <v>961.61183263262797</v>
+        <v>1012.664556330519</v>
       </c>
       <c r="W48" s="150">
         <f t="shared" si="30"/>
-        <v>983.80559967852105</v>
+        <v>1036.0366078133948</v>
       </c>
       <c r="X48" s="217">
         <f t="shared" si="30"/>
-        <v>1002.5410989249847</v>
+        <v>1055.7667893567193</v>
       </c>
       <c r="Y48" s="217">
         <f t="shared" si="30"/>
-        <v>1018.2130393556045</v>
+        <v>1072.2707653524835</v>
       </c>
       <c r="Z48" s="217">
         <f t="shared" si="30"/>
-        <v>1030.4917377332347</v>
+        <v>1085.2013494228329</v>
       </c>
       <c r="AA48" s="150">
         <f t="shared" si="30"/>
-        <v>1037.1068216073324</v>
+        <v>1092.1676332695204</v>
       </c>
       <c r="AB48" s="244"/>
     </row>
@@ -31196,31 +31178,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="259" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1" s="259" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1" s="259" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1" s="259" t="s">
+        <v>251</v>
+      </c>
+      <c r="E1" s="259" t="s">
+        <v>252</v>
+      </c>
+      <c r="F1" s="259" t="s">
+        <v>253</v>
+      </c>
+      <c r="G1" s="259" t="s">
+        <v>254</v>
+      </c>
+      <c r="H1" s="259" t="s">
         <v>255</v>
       </c>
-      <c r="B1" s="259" t="s">
-        <v>248</v>
-      </c>
-      <c r="C1" s="259" t="s">
-        <v>249</v>
-      </c>
-      <c r="D1" s="259" t="s">
-        <v>250</v>
-      </c>
-      <c r="E1" s="259" t="s">
-        <v>251</v>
-      </c>
-      <c r="F1" s="259" t="s">
-        <v>252</v>
-      </c>
-      <c r="G1" s="259" t="s">
-        <v>253</v>
-      </c>
-      <c r="H1" s="259" t="s">
-        <v>254</v>
-      </c>
       <c r="I1" s="259" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -31309,7 +31291,7 @@
         <v>66.012511731550148</v>
       </c>
       <c r="G4" s="259">
-        <v>1201.8936191406992</v>
+        <v>1251.0908516406989</v>
       </c>
       <c r="H4" s="259">
         <v>181.40020106674513</v>
@@ -31338,7 +31320,7 @@
         <v>101.61723848447548</v>
       </c>
       <c r="G5" s="259">
-        <v>854.05661636033483</v>
+        <v>902.88486961658509</v>
       </c>
       <c r="H5" s="259">
         <v>178.52885638089663</v>
@@ -31367,7 +31349,7 @@
         <v>137.50135897728978</v>
       </c>
       <c r="G6" s="259">
-        <v>906.03001879956446</v>
+        <v>954.49206015639311</v>
       </c>
       <c r="H6" s="259">
         <v>-474.40846011939709</v>
@@ -31396,7 +31378,7 @@
         <v>144.44402858127864</v>
       </c>
       <c r="G7" s="259">
-        <v>926.50683572140088</v>
+        <v>975.69580769858203</v>
       </c>
       <c r="H7" s="259">
         <v>-498.7387987375219</v>
@@ -31425,7 +31407,7 @@
         <v>151.38669818526751</v>
       </c>
       <c r="G8" s="259">
-        <v>935.88801570004148</v>
+        <v>985.57504185371795</v>
       </c>
       <c r="H8" s="259">
         <v>-547.1903606870228</v>
@@ -31454,7 +31436,7 @@
         <v>158.32936778925637</v>
       </c>
       <c r="G9" s="259">
-        <v>935.60252133929384</v>
+        <v>985.27439037424324</v>
       </c>
       <c r="H9" s="259">
         <v>-549.83002927139501</v>
@@ -31483,7 +31465,7 @@
         <v>165.27203739324511</v>
       </c>
       <c r="G10" s="259">
-        <v>921.93178379942924</v>
+        <v>970.87786269465209</v>
       </c>
       <c r="H10" s="259">
         <v>-552.4284100259805</v>
@@ -31512,7 +31494,7 @@
         <v>166.96284291968027</v>
       </c>
       <c r="G11" s="259">
-        <v>922.96679357866992</v>
+        <v>971.96782195193668</v>
       </c>
       <c r="H11" s="259">
         <v>-555.01027564865115</v>
@@ -31541,7 +31523,7 @@
         <v>168.65364844611543</v>
       </c>
       <c r="G12" s="259">
-        <v>924.56059251132388</v>
+        <v>973.64623691548536</v>
       </c>
       <c r="H12" s="259">
         <v>-557.58663622735014</v>
@@ -31570,7 +31552,7 @@
         <v>170.34445397255058</v>
       </c>
       <c r="G13" s="259">
-        <v>926.53654685838478</v>
+        <v>975.72709622304797</v>
       </c>
       <c r="H13" s="259">
         <v>-560.17125437200662</v>
@@ -31599,7 +31581,7 @@
         <v>172.03525949898574</v>
       </c>
       <c r="G14" s="259">
-        <v>929.6074540197169</v>
+        <v>978.96104024550095</v>
       </c>
       <c r="H14" s="259">
         <v>-562.78064521453507</v>
@@ -31628,7 +31610,7 @@
         <v>173.01795424453962</v>
       </c>
       <c r="G15" s="259">
-        <v>939.00391731648051</v>
+        <v>988.85636912206246</v>
       </c>
       <c r="H15" s="259">
         <v>-565.41480875493562</v>
@@ -31657,7 +31639,7 @@
         <v>174.0006489900934</v>
       </c>
       <c r="G16" s="259">
-        <v>948.03277360151947</v>
+        <v>998.36457444336088</v>
       </c>
       <c r="H16" s="259">
         <v>-568.06548742725101</v>
@@ -31686,7 +31668,7 @@
         <v>174.98334373564717</v>
       </c>
       <c r="G17" s="259">
-        <v>955.34762065860946</v>
+        <v>1006.0677724472932</v>
       </c>
       <c r="H17" s="259">
         <v>-570.71066105559476</v>
@@ -31715,7 +31697,7 @@
         <v>175.96603848120105</v>
       </c>
       <c r="G18" s="259">
-        <v>961.61183263262797</v>
+        <v>1012.664556330519</v>
       </c>
       <c r="H18" s="259">
         <v>-573.36409224989586</v>
@@ -31744,7 +31726,7 @@
         <v>181.12603494905306</v>
       </c>
       <c r="G19" s="259">
-        <v>983.80559967852105</v>
+        <v>1036.0366078133948</v>
       </c>
       <c r="H19" s="259">
         <v>-576.02302848816862</v>
@@ -31773,7 +31755,7 @@
         <v>186.28603141690496</v>
       </c>
       <c r="G20" s="259">
-        <v>1002.5410989249847</v>
+        <v>1055.7667893567193</v>
       </c>
       <c r="H20" s="259">
         <v>-578.67921220445555</v>
@@ -31802,7 +31784,7 @@
         <v>191.44602788475709</v>
       </c>
       <c r="G21" s="259">
-        <v>1018.2130393556045</v>
+        <v>1072.2707653524835</v>
       </c>
       <c r="H21" s="259">
         <v>-581.30236565691303</v>
@@ -31831,7 +31813,7 @@
         <v>196.60602435260898</v>
       </c>
       <c r="G22" s="259">
-        <v>1030.4917377332347</v>
+        <v>1085.2013494228329</v>
       </c>
       <c r="H22" s="259">
         <v>-583.90625145546994</v>
@@ -31860,7 +31842,7 @@
         <v>200.08434262123751</v>
       </c>
       <c r="G23" s="259">
-        <v>1037.1068216073324</v>
+        <v>1092.1676332695204</v>
       </c>
       <c r="H23" s="259">
         <v>-586.4908696001263</v>
@@ -31886,39 +31868,39 @@
   <sheetData>
     <row r="1" spans="1:10" s="297" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="297" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B1" s="297" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C1" s="297" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D1" s="297" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E1" s="297" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F1" s="297" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G1" s="297" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H1" s="297" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I1" s="297" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="J1" s="297" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B2">
         <v>20909.900000000001</v>
@@ -31950,7 +31932,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B3">
         <v>18813.900000000001</v>
@@ -31982,7 +31964,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B4">
         <v>1634.2</v>
@@ -32014,7 +31996,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B5">
         <v>183.5</v>
@@ -32046,7 +32028,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B6">
         <v>1355.2</v>
@@ -32078,7 +32060,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B7">
         <v>234.7</v>
@@ -32107,7 +32089,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B8">
         <v>456.5</v>
@@ -32139,7 +32121,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B9">
         <v>1295.5</v>
@@ -32171,7 +32153,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B10">
         <v>8600</v>
@@ -32203,7 +32185,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B11">
         <v>12969</v>
@@ -32235,7 +32217,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B12">
         <v>63.5</v>
@@ -32264,7 +32246,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B13">
         <v>2220523</v>
@@ -32296,7 +32278,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B14">
         <v>753311</v>
@@ -32328,7 +32310,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H15">
         <v>1078100</v>
@@ -32342,7 +32324,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B16">
         <v>27025</v>
@@ -32374,7 +32356,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H17">
         <v>19100</v>
@@ -32388,7 +32370,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H18">
         <v>160900</v>
@@ -32402,7 +32384,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B19">
         <v>79458</v>
@@ -32434,7 +32416,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H20">
         <v>609300</v>
@@ -32448,7 +32430,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H21">
         <v>63800</v>
@@ -32462,7 +32444,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H22">
         <v>73300</v>
@@ -32476,7 +32458,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H23">
         <v>140000</v>
@@ -32490,7 +32472,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B24">
         <v>586475</v>
@@ -32522,7 +32504,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B25">
         <v>1368395</v>
@@ -32554,7 +32536,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B26">
         <v>1241599</v>
@@ -32586,7 +32568,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B27">
         <v>389624</v>
@@ -32618,7 +32600,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B28">
         <v>728844</v>
@@ -32650,7 +32632,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B29">
         <v>589819</v>
@@ -32682,7 +32664,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B30">
         <v>1997129</v>
@@ -32714,7 +32696,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B31">
         <v>2279638</v>
@@ -32746,7 +32728,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B32">
         <v>21.568999999999999</v>
@@ -32778,7 +32760,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H33">
         <v>277100</v>
@@ -32792,7 +32774,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H34">
         <v>690700</v>
@@ -32821,10 +32803,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -32914,12 +32896,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA9F3DB0CD4D844B918872BCED9B9CF9" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61f75d9b13a46a58fd2456a565edcb9c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cac5d118-ba7b-4807-b700-df6f95cfff50" xmlns:ns3="66951ee6-cd93-49c7-9437-e871b2a117d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d86870d415110e2c98f3a885b29630d1" ns2:_="" ns3:_="">
     <xsd:import namespace="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
@@ -33136,6 +33112,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
   <ds:schemaRefs>
@@ -33145,23 +33127,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
-    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B484070-5C48-4F32-AF92-870650EA512F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -33178,4 +33143,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
+    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>